--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_20_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_20_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>245167.2580288286</v>
+        <v>327140.5414585507</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14785957.46876066</v>
+        <v>14758048.28460539</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6282241.008167087</v>
+        <v>6288032.183655249</v>
       </c>
     </row>
     <row r="11">
@@ -667,67 +667,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.848256208035306</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>49.79500702712463</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.848256208035304</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>43.85944218949135</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>43.85944218949135</v>
       </c>
     </row>
     <row r="4">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.57007701068535</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.848256208035249</v>
       </c>
       <c r="W5" t="n">
-        <v>73.46440173672741</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>73.46440173672741</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>73.46440173672741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.521560382809494</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="G6" t="n">
-        <v>73.46440173672741</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>39.37486489346175</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>21.81101977343823</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>73.46440173672741</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>73.46440173672741</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>43.8594421894914</v>
       </c>
     </row>
     <row r="7">
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>98.74883103803278</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>112.1126601249237</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>57.96571614961795</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="U8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>25.2294077990816</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="F9" t="n">
-        <v>112.1126601249237</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="G9" t="n">
-        <v>112.1126601249237</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>187.5255871663199</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>165.1725371760945</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1454,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>187.5255871663199</v>
+        <v>149.3009866603062</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>88.0908181594307</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H14" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>88.09081815943067</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>20.10332478271065</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U15" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>187.5255871663198</v>
+        <v>186.164940692547</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="16">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>52.21594625443442</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>337.6361713017736</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>182.6124438027353</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>283.2448687695649</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>380.1755759644005</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>99.76882660971476</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>35.20287667141727</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1698774804723</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1277025328068</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>130.360454106293</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>44.29707899183728</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.845482630877</v>
+        <v>225.8403006767461</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1988,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>45.0150083704117</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7689164205999</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>265.9502197469181</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>355.0130566883174</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>337.6361713017736</v>
+        <v>380.1755759644005</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>99.76882660971476</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>35.20287667141727</v>
       </c>
       <c r="S20" t="n">
-        <v>146.9382674488655</v>
+        <v>143.5836595683023</v>
       </c>
       <c r="T20" t="n">
-        <v>160.3355850653752</v>
+        <v>210.5254541783477</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1159255221454</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>337.6361713017736</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.8070798189336</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.2892890521601</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.845482630877</v>
+        <v>225.8403006767461</v>
       </c>
       <c r="V21" t="n">
-        <v>29.32292480380929</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>33.70288641479637</v>
       </c>
     </row>
     <row r="22">
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>120.5291717239868</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>211.7839247910115</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>278.0419449798243</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>368.1484862413455</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>162.1366631383698</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U24" t="n">
-        <v>108.4292452768525</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>40.20690263795868</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>250.7831302631783</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>106.977523517954</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.8707348436268</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,10 +2614,10 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>75.24830285759786</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2642,13 +2642,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>54.51989709900458</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2687,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>184.2591625070819</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>37.01247764267757</v>
       </c>
       <c r="W28" t="n">
-        <v>25.07347487414115</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>300.5231167206438</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>411.8707348436268</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>208.0722578696039</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>232.2171797725128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2876,19 +2876,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.229391180115301</v>
       </c>
       <c r="H30" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.8205739680685</v>
@@ -2933,13 +2933,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>119.5093174069663</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.5292955912959</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.5292955912959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>210.7834808914787</v>
       </c>
       <c r="G32" t="n">
-        <v>169.1470890105915</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>94.50081326185514</v>
@@ -3173,10 +3173,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>97.11907075227148</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>188.2978620184238</v>
       </c>
     </row>
     <row r="34">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>10.86760685770953</v>
       </c>
       <c r="C34" t="n">
-        <v>111.9404544080143</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>62.40901902847797</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V35" t="n">
-        <v>307.947719462907</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T36" t="n">
-        <v>123.349105413168</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U36" t="n">
         <v>225.8205739680685</v>
@@ -3410,10 +3410,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>139.1386354747044</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>32.19847691108352</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U37" t="n">
-        <v>40.20690263795868</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>307.1897046290637</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>68.87085054881216</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.36302286695262</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3593,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>7.080678605817901</v>
       </c>
       <c r="G39" t="n">
         <v>135.5072338470353</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S39" t="n">
         <v>137.5750138932992</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>53.56180456272117</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>40.20690263795868</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>263.3602599498843</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>10.14174003267913</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>151.9366482476076</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U42" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>72.84534749383651</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>185.9158911817642</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>220.013305673653</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>7.935630003080377</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>125.6811405221783</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4061,16 +4061,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>94.50081326185514</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S45" t="n">
         <v>137.5750138932992</v>
@@ -4112,16 +4112,16 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>20.90844519635373</v>
       </c>
       <c r="W45" t="n">
-        <v>150.1992561455752</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.1015133326994</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>18.66907008313627</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.4464998170029</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="C2" t="n">
-        <v>106.4464998170029</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="D2" t="n">
-        <v>106.4464998170029</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="E2" t="n">
-        <v>104.5795743543409</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="F2" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G2" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H2" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I2" t="n">
         <v>3.98360056216997</v>
@@ -4366,16 +4366,16 @@
         <v>156.7444867130883</v>
       </c>
       <c r="V2" t="n">
-        <v>156.7444867130883</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="W2" t="n">
-        <v>106.4464998170029</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="X2" t="n">
-        <v>106.4464998170029</v>
+        <v>5.850526024831893</v>
       </c>
       <c r="Y2" t="n">
-        <v>106.4464998170029</v>
+        <v>3.98360056216997</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="C3" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="D3" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="E3" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="F3" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G3" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H3" t="n">
         <v>3.98360056216997</v>
@@ -4418,10 +4418,10 @@
         <v>50.30614171732423</v>
       </c>
       <c r="M3" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N3" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O3" t="n">
         <v>170.4401317516709</v>
@@ -4436,22 +4436,22 @@
         <v>199.1800281084985</v>
       </c>
       <c r="S3" t="n">
-        <v>154.8775612504264</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="T3" t="n">
-        <v>154.8775612504264</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="U3" t="n">
-        <v>154.8775612504264</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="V3" t="n">
-        <v>104.5795743543409</v>
+        <v>148.882041212413</v>
       </c>
       <c r="W3" t="n">
-        <v>54.28158745825545</v>
+        <v>148.882041212413</v>
       </c>
       <c r="X3" t="n">
-        <v>54.28158745825545</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="Y3" t="n">
         <v>54.28158745825545</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.877152138938193</v>
+        <v>104.579574354341</v>
       </c>
       <c r="C5" t="n">
-        <v>5.877152138938193</v>
+        <v>104.579574354341</v>
       </c>
       <c r="D5" t="n">
-        <v>5.877152138938193</v>
+        <v>104.579574354341</v>
       </c>
       <c r="E5" t="n">
-        <v>5.877152138938193</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="F5" t="n">
-        <v>5.877152138938193</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="G5" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H5" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I5" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J5" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K5" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L5" t="n">
-        <v>42.77891399687743</v>
+        <v>19.82590800208273</v>
       </c>
       <c r="M5" t="n">
-        <v>115.5086717162376</v>
+        <v>69.12296495893617</v>
       </c>
       <c r="N5" t="n">
-        <v>188.2384294355977</v>
+        <v>118.4200219157896</v>
       </c>
       <c r="O5" t="n">
-        <v>249.0477644106464</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="P5" t="n">
-        <v>266.4461240792085</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.4461240792085</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="R5" t="n">
-        <v>266.4461240792085</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="S5" t="n">
-        <v>266.4461240792085</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="T5" t="n">
-        <v>266.4461240792085</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="U5" t="n">
-        <v>266.4461240792085</v>
+        <v>156.7444867130885</v>
       </c>
       <c r="V5" t="n">
-        <v>266.4461240792085</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="W5" t="n">
-        <v>192.2396576784737</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="X5" t="n">
-        <v>118.033191277739</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="Y5" t="n">
-        <v>43.82672487700421</v>
+        <v>154.8775612504266</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119.8562093411495</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="C6" t="n">
-        <v>119.8562093411495</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="D6" t="n">
-        <v>119.8562093411495</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="E6" t="n">
-        <v>119.8562093411495</v>
+        <v>54.28158745825552</v>
       </c>
       <c r="F6" t="n">
-        <v>119.8562093411495</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G6" t="n">
-        <v>45.64974294041471</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H6" t="n">
-        <v>45.64974294041471</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I6" t="n">
-        <v>45.64974294041471</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J6" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K6" t="n">
-        <v>17.40704038112031</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L6" t="n">
-        <v>79.23293915447337</v>
+        <v>50.30614171732424</v>
       </c>
       <c r="M6" t="n">
-        <v>106.0235080696298</v>
+        <v>99.60319867417768</v>
       </c>
       <c r="N6" t="n">
-        <v>178.7532657889899</v>
+        <v>148.9002556310311</v>
       </c>
       <c r="O6" t="n">
-        <v>251.4830235083501</v>
+        <v>198.1973125878845</v>
       </c>
       <c r="P6" t="n">
-        <v>293.8576069469096</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q6" t="n">
-        <v>271.8262738424266</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R6" t="n">
-        <v>197.6198074416918</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S6" t="n">
-        <v>197.6198074416918</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="T6" t="n">
-        <v>197.6198074416918</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="U6" t="n">
-        <v>123.4133410409571</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="V6" t="n">
-        <v>123.4133410409571</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="W6" t="n">
-        <v>123.4133410409571</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="X6" t="n">
-        <v>123.4133410409571</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="Y6" t="n">
-        <v>123.4133410409571</v>
+        <v>54.28158745825552</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="M7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="N7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="O7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="P7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="R7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="S7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="T7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="U7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="V7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="W7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="X7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.877152138938193</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.2055292623982</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="C8" t="n">
-        <v>235.4592352845873</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="D8" t="n">
-        <v>122.2141240472906</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="E8" t="n">
-        <v>8.969012809993897</v>
+        <v>65.96442437708571</v>
       </c>
       <c r="F8" t="n">
-        <v>8.969012809993897</v>
+        <v>65.96442437708571</v>
       </c>
       <c r="G8" t="n">
-        <v>8.969012809993897</v>
+        <v>65.96442437708571</v>
       </c>
       <c r="H8" t="n">
-        <v>8.969012809993897</v>
+        <v>65.96442437708571</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J8" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687545</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773408</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M8" t="n">
-        <v>202.420917408393</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N8" t="n">
-        <v>313.4124509320676</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O8" t="n">
-        <v>404.8833474416799</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4506404996948</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q8" t="n">
-        <v>448.4506404996948</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="R8" t="n">
-        <v>448.4506404996948</v>
+        <v>346.7673010107287</v>
       </c>
       <c r="S8" t="n">
-        <v>448.4506404996948</v>
+        <v>253.1663421328477</v>
       </c>
       <c r="T8" t="n">
-        <v>448.4506404996948</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="U8" t="n">
-        <v>335.2055292623982</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="V8" t="n">
-        <v>335.2055292623982</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="W8" t="n">
-        <v>335.2055292623982</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="X8" t="n">
-        <v>335.2055292623982</v>
+        <v>159.5653832549667</v>
       </c>
       <c r="Y8" t="n">
-        <v>335.2055292623982</v>
+        <v>159.5653832549667</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>325.8554698928816</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="C9" t="n">
-        <v>325.8554698928816</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="D9" t="n">
-        <v>325.8554698928816</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="E9" t="n">
-        <v>300.3712195907789</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="F9" t="n">
-        <v>187.1261083534823</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G9" t="n">
-        <v>73.8809971161856</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H9" t="n">
-        <v>73.8809971161856</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I9" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K9" t="n">
-        <v>36.22166818534551</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L9" t="n">
-        <v>119.1887676792232</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M9" t="n">
-        <v>176.4394396403952</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640697</v>
+        <v>226.5580308522524</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953196</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996948</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q9" t="n">
-        <v>439.1005811301782</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R9" t="n">
-        <v>439.1005811301782</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S9" t="n">
-        <v>439.1005811301782</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T9" t="n">
-        <v>439.1005811301782</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U9" t="n">
-        <v>439.1005811301782</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="V9" t="n">
-        <v>439.1005811301782</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="W9" t="n">
-        <v>325.8554698928816</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="X9" t="n">
-        <v>325.8554698928816</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Y9" t="n">
-        <v>325.8554698928816</v>
+        <v>370.6597971564088</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V10" t="n">
-        <v>12.63101027343186</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.969012809993897</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>583.2614020227597</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C11" t="n">
-        <v>393.841617006275</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="D11" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E11" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F11" t="n">
         <v>15.00204697330559</v>
@@ -5041,52 +5041,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058933</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N11" t="n">
         <v>509.4952041123826</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R11" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S11" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T11" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="U11" t="n">
-        <v>583.2614020227597</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="V11" t="n">
-        <v>583.2614020227597</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W11" t="n">
-        <v>583.2614020227597</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="X11" t="n">
-        <v>583.2614020227597</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="Y11" t="n">
-        <v>583.2614020227597</v>
+        <v>181.8429936158253</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.00204697330559</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="C12" t="n">
-        <v>15.00204697330559</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="D12" t="n">
-        <v>15.00204697330559</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="E12" t="n">
-        <v>15.00204697330559</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F12" t="n">
-        <v>15.00204697330559</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G12" t="n">
         <v>15.00204697330559</v>
@@ -5126,46 +5126,46 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L12" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546598</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P12" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R12" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S12" t="n">
-        <v>750.1023486652795</v>
+        <v>598.8192732198755</v>
       </c>
       <c r="T12" t="n">
-        <v>750.1023486652795</v>
+        <v>598.8192732198755</v>
       </c>
       <c r="U12" t="n">
-        <v>560.6825636487947</v>
+        <v>598.8192732198755</v>
       </c>
       <c r="V12" t="n">
-        <v>371.26277863231</v>
+        <v>598.8192732198755</v>
       </c>
       <c r="W12" t="n">
-        <v>181.8429936158252</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="X12" t="n">
-        <v>181.8429936158252</v>
+        <v>448.0101957852228</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.00204697330559</v>
+        <v>448.0101957852228</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="C13" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="D13" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="E13" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="F13" t="n">
         <v>15.00204697330559</v>
@@ -5205,46 +5205,46 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170716</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P13" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R13" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S13" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T13" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U13" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="V13" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="W13" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="X13" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828974</v>
       </c>
     </row>
     <row r="14">
@@ -5266,64 +5266,64 @@
         <v>293.4024563932556</v>
       </c>
       <c r="F14" t="n">
-        <v>204.4218319897903</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="G14" t="n">
-        <v>204.4218319897903</v>
+        <v>103.9826713767709</v>
       </c>
       <c r="H14" t="n">
-        <v>15.00204697330559</v>
+        <v>103.9826713767709</v>
       </c>
       <c r="I14" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678493</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058943</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079183</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M14" t="n">
         <v>347.1218190644754</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O14" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652794</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R14" t="n">
-        <v>672.242026426225</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S14" t="n">
-        <v>672.242026426225</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T14" t="n">
-        <v>482.8222414097403</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="U14" t="n">
-        <v>293.4024563932556</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="V14" t="n">
-        <v>293.4024563932556</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="W14" t="n">
-        <v>293.4024563932556</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="X14" t="n">
-        <v>293.4024563932556</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="Y14" t="n">
-        <v>293.4024563932556</v>
+        <v>482.8222414097404</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>181.8429936158253</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C15" t="n">
-        <v>181.8429936158253</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D15" t="n">
-        <v>181.8429936158253</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E15" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F15" t="n">
         <v>15.00204697330559</v>
@@ -5360,7 +5360,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L15" t="n">
         <v>183.5548280772649</v>
@@ -5369,40 +5369,40 @@
         <v>338.7690911140244</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017063</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S15" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T15" t="n">
-        <v>750.1023486652794</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U15" t="n">
         <v>560.6825636487947</v>
       </c>
       <c r="V15" t="n">
-        <v>371.26277863231</v>
+        <v>372.6371690098583</v>
       </c>
       <c r="W15" t="n">
-        <v>371.26277863231</v>
+        <v>372.6371690098583</v>
       </c>
       <c r="X15" t="n">
-        <v>181.8429936158253</v>
+        <v>372.6371690098583</v>
       </c>
       <c r="Y15" t="n">
-        <v>181.8429936158253</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C16" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D16" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E16" t="n">
         <v>15.00204697330559</v>
@@ -5448,40 +5448,40 @@
         <v>42.98993985170716</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396333</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W16" t="n">
-        <v>67.74542702828985</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X16" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>552.514545324858</v>
+        <v>801.3122999596574</v>
       </c>
       <c r="C17" t="n">
-        <v>552.514545324858</v>
+        <v>801.3122999596574</v>
       </c>
       <c r="D17" t="n">
-        <v>211.4679076462988</v>
+        <v>801.3122999596574</v>
       </c>
       <c r="E17" t="n">
-        <v>27.01089370414189</v>
+        <v>801.3122999596574</v>
       </c>
       <c r="F17" t="n">
-        <v>27.01089370414189</v>
+        <v>515.2063719095918</v>
       </c>
       <c r="G17" t="n">
-        <v>27.01089370414189</v>
+        <v>131.1906386122175</v>
       </c>
       <c r="H17" t="n">
-        <v>27.01089370414189</v>
+        <v>131.1906386122175</v>
       </c>
       <c r="I17" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="J17" t="n">
-        <v>76.69148555090123</v>
+        <v>92.46418127429729</v>
       </c>
       <c r="K17" t="n">
-        <v>201.8883326102884</v>
+        <v>236.1997673425849</v>
       </c>
       <c r="L17" t="n">
-        <v>394.1078539079001</v>
+        <v>451.4182336881771</v>
       </c>
       <c r="M17" t="n">
-        <v>639.6585455322481</v>
+        <v>722.5596831006925</v>
       </c>
       <c r="N17" t="n">
-        <v>893.7963124412555</v>
+        <v>1002.702293013193</v>
       </c>
       <c r="O17" t="n">
-        <v>1120.436137987355</v>
+        <v>1253.897754396962</v>
       </c>
       <c r="P17" t="n">
-        <v>1279.366984734314</v>
+        <v>1433.786268216658</v>
       </c>
       <c r="Q17" t="n">
-        <v>1350.544685207094</v>
+        <v>1520.702303857602</v>
       </c>
       <c r="R17" t="n">
-        <v>1350.544685207094</v>
+        <v>1485.143842573342</v>
       </c>
       <c r="S17" t="n">
-        <v>1350.544685207094</v>
+        <v>1485.143842573342</v>
       </c>
       <c r="T17" t="n">
-        <v>1137.241778661163</v>
+        <v>1485.143842573342</v>
       </c>
       <c r="U17" t="n">
-        <v>883.5774326684286</v>
+        <v>1485.143842573342</v>
       </c>
       <c r="V17" t="n">
-        <v>552.514545324858</v>
+        <v>1154.080955229771</v>
       </c>
       <c r="W17" t="n">
-        <v>552.514545324858</v>
+        <v>801.3122999596574</v>
       </c>
       <c r="X17" t="n">
-        <v>552.514545324858</v>
+        <v>801.3122999596574</v>
       </c>
       <c r="Y17" t="n">
-        <v>552.514545324858</v>
+        <v>801.3122999596574</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>246.208447219448</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="C18" t="n">
-        <v>71.75541793832096</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="D18" t="n">
-        <v>71.75541793832096</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="E18" t="n">
-        <v>71.75541793832096</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="F18" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="G18" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="H18" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="I18" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="J18" t="n">
-        <v>37.78246690495246</v>
+        <v>48.55283455759722</v>
       </c>
       <c r="K18" t="n">
-        <v>134.3476259009992</v>
+        <v>157.7097378993246</v>
       </c>
       <c r="L18" t="n">
-        <v>310.5139402071243</v>
+        <v>350.8072063959845</v>
       </c>
       <c r="M18" t="n">
-        <v>535.4485879464016</v>
+        <v>595.4997124846648</v>
       </c>
       <c r="N18" t="n">
-        <v>780.7452314131513</v>
+        <v>861.0771460199837</v>
       </c>
       <c r="O18" t="n">
-        <v>982.9239423973753</v>
+        <v>1081.808817743001</v>
       </c>
       <c r="P18" t="n">
-        <v>1125.857116108954</v>
+        <v>1239.632378105373</v>
       </c>
       <c r="Q18" t="n">
-        <v>1171.484961076545</v>
+        <v>1295.214052212673</v>
       </c>
       <c r="R18" t="n">
-        <v>1171.484961076545</v>
+        <v>1295.214052212673</v>
       </c>
       <c r="S18" t="n">
-        <v>1171.484961076545</v>
+        <v>1295.214052212673</v>
       </c>
       <c r="T18" t="n">
-        <v>1171.484961076545</v>
+        <v>1295.214052212673</v>
       </c>
       <c r="U18" t="n">
-        <v>943.3582109443463</v>
+        <v>1067.092536377576</v>
       </c>
       <c r="V18" t="n">
-        <v>708.2061027126035</v>
+        <v>831.9404281458333</v>
       </c>
       <c r="W18" t="n">
-        <v>453.9687459844019</v>
+        <v>577.7030714176317</v>
       </c>
       <c r="X18" t="n">
-        <v>453.9687459844019</v>
+        <v>369.8515712120989</v>
       </c>
       <c r="Y18" t="n">
-        <v>246.208447219448</v>
+        <v>162.0912724471449</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>240.934050058699</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="C19" t="n">
-        <v>240.934050058699</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="D19" t="n">
-        <v>240.934050058699</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="E19" t="n">
-        <v>240.934050058699</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="F19" t="n">
-        <v>195.4643446340407</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="G19" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="H19" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="I19" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="J19" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="K19" t="n">
-        <v>39.84944722784374</v>
+        <v>50.8478900116035</v>
       </c>
       <c r="L19" t="n">
-        <v>86.18417328111948</v>
+        <v>106.9019728236742</v>
       </c>
       <c r="M19" t="n">
-        <v>138.2959283105012</v>
+        <v>169.2614268008302</v>
       </c>
       <c r="N19" t="n">
-        <v>197.0261081867319</v>
+        <v>237.9956382485905</v>
       </c>
       <c r="O19" t="n">
-        <v>230.9598461398807</v>
+        <v>281.1697185574775</v>
       </c>
       <c r="P19" t="n">
-        <v>240.934050058699</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.934050058699</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="R19" t="n">
-        <v>240.934050058699</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="S19" t="n">
-        <v>240.934050058699</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="T19" t="n">
-        <v>240.934050058699</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="U19" t="n">
-        <v>240.934050058699</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="V19" t="n">
-        <v>240.934050058699</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="W19" t="n">
-        <v>240.934050058699</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="X19" t="n">
-        <v>240.934050058699</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="Y19" t="n">
-        <v>240.934050058699</v>
+        <v>30.41404607715204</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>368.0575313827011</v>
+        <v>873.8054190695084</v>
       </c>
       <c r="C20" t="n">
-        <v>368.0575313827011</v>
+        <v>515.2063719095918</v>
       </c>
       <c r="D20" t="n">
-        <v>368.0575313827011</v>
+        <v>515.2063719095918</v>
       </c>
       <c r="E20" t="n">
-        <v>368.0575313827011</v>
+        <v>515.2063719095918</v>
       </c>
       <c r="F20" t="n">
-        <v>368.0575313827011</v>
+        <v>515.2063719095918</v>
       </c>
       <c r="G20" t="n">
-        <v>27.01089370414189</v>
+        <v>131.1906386122175</v>
       </c>
       <c r="H20" t="n">
-        <v>27.01089370414189</v>
+        <v>131.1906386122175</v>
       </c>
       <c r="I20" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="J20" t="n">
-        <v>76.69148555090078</v>
+        <v>92.46418127429715</v>
       </c>
       <c r="K20" t="n">
-        <v>201.8883326102878</v>
+        <v>236.1997673425847</v>
       </c>
       <c r="L20" t="n">
-        <v>394.1078539078994</v>
+        <v>451.418233688177</v>
       </c>
       <c r="M20" t="n">
-        <v>639.6585455322474</v>
+        <v>722.5596831006924</v>
       </c>
       <c r="N20" t="n">
-        <v>893.7963124412548</v>
+        <v>1002.702293013193</v>
       </c>
       <c r="O20" t="n">
-        <v>1120.436137987355</v>
+        <v>1253.897754396962</v>
       </c>
       <c r="P20" t="n">
-        <v>1279.366984734314</v>
+        <v>1433.786268216658</v>
       </c>
       <c r="Q20" t="n">
-        <v>1350.544685207094</v>
+        <v>1520.702303857602</v>
       </c>
       <c r="R20" t="n">
-        <v>1350.544685207094</v>
+        <v>1485.143842573342</v>
       </c>
       <c r="S20" t="n">
-        <v>1202.122192834503</v>
+        <v>1340.1098430094</v>
       </c>
       <c r="T20" t="n">
-        <v>1040.167056404831</v>
+        <v>1127.457869091877</v>
       </c>
       <c r="U20" t="n">
-        <v>1040.167056404831</v>
+        <v>873.8054190695084</v>
       </c>
       <c r="V20" t="n">
-        <v>709.1041690612603</v>
+        <v>873.8054190695084</v>
       </c>
       <c r="W20" t="n">
-        <v>368.0575313827011</v>
+        <v>873.8054190695084</v>
       </c>
       <c r="X20" t="n">
-        <v>368.0575313827011</v>
+        <v>873.8054190695084</v>
       </c>
       <c r="Y20" t="n">
-        <v>368.0575313827011</v>
+        <v>873.8054190695084</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>509.6357876519756</v>
+        <v>167.5929145811254</v>
       </c>
       <c r="C21" t="n">
-        <v>335.1827583708487</v>
+        <v>167.5929145811254</v>
       </c>
       <c r="D21" t="n">
-        <v>186.2483487095974</v>
+        <v>167.5929145811254</v>
       </c>
       <c r="E21" t="n">
-        <v>27.01089370414189</v>
+        <v>167.5929145811254</v>
       </c>
       <c r="F21" t="n">
-        <v>27.01089370414189</v>
+        <v>167.5929145811254</v>
       </c>
       <c r="G21" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="H21" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="I21" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="J21" t="n">
-        <v>37.78246690495246</v>
+        <v>48.55283455759722</v>
       </c>
       <c r="K21" t="n">
-        <v>134.3476259009992</v>
+        <v>157.7097378993246</v>
       </c>
       <c r="L21" t="n">
-        <v>310.5139402071243</v>
+        <v>350.8072063959845</v>
       </c>
       <c r="M21" t="n">
-        <v>535.4485879464016</v>
+        <v>595.4997124846648</v>
       </c>
       <c r="N21" t="n">
-        <v>780.7452314131513</v>
+        <v>861.0771460199837</v>
       </c>
       <c r="O21" t="n">
-        <v>982.9239423973753</v>
+        <v>1081.808817743001</v>
       </c>
       <c r="P21" t="n">
-        <v>1125.857116108954</v>
+        <v>1239.632378105373</v>
       </c>
       <c r="Q21" t="n">
-        <v>1171.484961076545</v>
+        <v>1295.214052212673</v>
       </c>
       <c r="R21" t="n">
-        <v>1171.484961076545</v>
+        <v>1295.214052212673</v>
       </c>
       <c r="S21" t="n">
-        <v>1171.484961076545</v>
+        <v>1295.214052212673</v>
       </c>
       <c r="T21" t="n">
-        <v>975.2331539531511</v>
+        <v>1295.214052212673</v>
       </c>
       <c r="U21" t="n">
-        <v>747.1064038209522</v>
+        <v>1067.092536377576</v>
       </c>
       <c r="V21" t="n">
-        <v>717.4872878575085</v>
+        <v>831.9404281458333</v>
       </c>
       <c r="W21" t="n">
-        <v>717.4872878575085</v>
+        <v>577.7030714176317</v>
       </c>
       <c r="X21" t="n">
-        <v>509.6357876519756</v>
+        <v>369.8515712120989</v>
       </c>
       <c r="Y21" t="n">
-        <v>509.6357876519756</v>
+        <v>335.8082516011934</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.01089370414189</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="C22" t="n">
-        <v>27.01089370414189</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="D22" t="n">
-        <v>27.01089370414189</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="E22" t="n">
-        <v>27.01089370414189</v>
+        <v>177.3039935750624</v>
       </c>
       <c r="F22" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="G22" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="H22" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="I22" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="J22" t="n">
-        <v>27.01089370414189</v>
+        <v>30.41404607715204</v>
       </c>
       <c r="K22" t="n">
-        <v>39.84944722784374</v>
+        <v>50.8478900116035</v>
       </c>
       <c r="L22" t="n">
-        <v>86.18417328111948</v>
+        <v>106.9019728236742</v>
       </c>
       <c r="M22" t="n">
-        <v>138.2959283105012</v>
+        <v>169.2614268008302</v>
       </c>
       <c r="N22" t="n">
-        <v>197.0261081867319</v>
+        <v>237.9956382485905</v>
       </c>
       <c r="O22" t="n">
-        <v>230.9598461398807</v>
+        <v>281.1697185574775</v>
       </c>
       <c r="P22" t="n">
-        <v>240.934050058699</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.934050058699</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="R22" t="n">
-        <v>240.934050058699</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="S22" t="n">
-        <v>240.934050058699</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="T22" t="n">
-        <v>27.01089370414189</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="U22" t="n">
-        <v>27.01089370414189</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="V22" t="n">
-        <v>27.01089370414189</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="W22" t="n">
-        <v>27.01089370414189</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="X22" t="n">
-        <v>27.01089370414189</v>
+        <v>299.0506316800996</v>
       </c>
       <c r="Y22" t="n">
-        <v>27.01089370414189</v>
+        <v>299.0506316800996</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1528.25282250304</v>
+        <v>1260.536454831512</v>
       </c>
       <c r="C23" t="n">
-        <v>1159.290305562629</v>
+        <v>891.5739378911005</v>
       </c>
       <c r="D23" t="n">
-        <v>801.0246069558782</v>
+        <v>533.3082392843501</v>
       </c>
       <c r="E23" t="n">
-        <v>415.236354357634</v>
+        <v>533.3082392843501</v>
       </c>
       <c r="F23" t="n">
-        <v>415.236354357634</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="G23" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H23" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I23" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J23" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K23" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L23" t="n">
-        <v>669.5878927711867</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M23" t="n">
         <v>1038.14846457873</v>
@@ -6031,10 +6031,10 @@
         <v>1914.852662567162</v>
       </c>
       <c r="X23" t="n">
-        <v>1914.852662567162</v>
+        <v>1541.386904306082</v>
       </c>
       <c r="Y23" t="n">
-        <v>1914.852662567162</v>
+        <v>1541.386904306082</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>217.8222258192201</v>
+        <v>502.6125713829339</v>
       </c>
       <c r="C24" t="n">
-        <v>43.36919653809306</v>
+        <v>338.8381641724594</v>
       </c>
       <c r="D24" t="n">
-        <v>43.36919653809306</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="E24" t="n">
-        <v>43.36919653809306</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F24" t="n">
         <v>43.36919653809306</v>
@@ -6101,19 +6101,19 @@
         <v>1400.563316948358</v>
       </c>
       <c r="U24" t="n">
-        <v>1291.038826769719</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V24" t="n">
-        <v>1055.886718537977</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="W24" t="n">
-        <v>801.6493618097749</v>
+        <v>918.2243703534207</v>
       </c>
       <c r="X24" t="n">
-        <v>593.797861604242</v>
+        <v>710.3728701478879</v>
       </c>
       <c r="Y24" t="n">
-        <v>386.0375628392881</v>
+        <v>502.6125713829339</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C25" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D25" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E25" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F25" t="n">
         <v>43.36919653809306</v>
@@ -6177,22 +6177,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T25" t="n">
-        <v>520.2893470405991</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="U25" t="n">
-        <v>520.2893470405991</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="V25" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W25" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X25" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y25" t="n">
-        <v>230.8721770036385</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>924.1416323895796</v>
+        <v>978.4442511878833</v>
       </c>
       <c r="C26" t="n">
-        <v>924.1416323895796</v>
+        <v>978.4442511878833</v>
       </c>
       <c r="D26" t="n">
-        <v>924.1416323895796</v>
+        <v>978.4442511878833</v>
       </c>
       <c r="E26" t="n">
-        <v>538.3533797913353</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F26" t="n">
-        <v>538.3533797913353</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G26" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H26" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I26" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J26" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K26" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L26" t="n">
-        <v>669.5878927711863</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M26" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N26" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O26" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P26" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q26" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R26" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S26" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T26" t="n">
-        <v>1958.285829056567</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U26" t="n">
-        <v>1704.678664719076</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V26" t="n">
-        <v>1373.615777375506</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="W26" t="n">
-        <v>1297.607390650659</v>
+        <v>1351.910009448963</v>
       </c>
       <c r="X26" t="n">
-        <v>924.1416323895796</v>
+        <v>978.4442511878833</v>
       </c>
       <c r="Y26" t="n">
-        <v>924.1416323895796</v>
+        <v>978.4442511878833</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>727.5992515893495</v>
+        <v>650.1671872384704</v>
       </c>
       <c r="C27" t="n">
-        <v>553.1462223082225</v>
+        <v>475.7141579573434</v>
       </c>
       <c r="D27" t="n">
-        <v>404.2118126469712</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="E27" t="n">
-        <v>244.9743576415157</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F27" t="n">
-        <v>98.4397996684007</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G27" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H27" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I27" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J27" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K27" t="n">
         <v>246.6448318504519</v>
@@ -6335,22 +6335,22 @@
         <v>1734.238298972664</v>
       </c>
       <c r="T27" t="n">
-        <v>1539.52797744664</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="U27" t="n">
-        <v>1311.426387579904</v>
+        <v>1506.136709105928</v>
       </c>
       <c r="V27" t="n">
-        <v>1311.426387579904</v>
+        <v>1320.016342937159</v>
       </c>
       <c r="W27" t="n">
-        <v>1311.426387579904</v>
+        <v>1065.778986208957</v>
       </c>
       <c r="X27" t="n">
-        <v>1103.574887374371</v>
+        <v>857.9274860034243</v>
       </c>
       <c r="Y27" t="n">
-        <v>895.8145886094176</v>
+        <v>650.1671872384704</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.36919653809304</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="C28" t="n">
-        <v>43.36919653809304</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="D28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J28" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K28" t="n">
-        <v>92.7168589798152</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L28" t="n">
         <v>185.7706748018941</v>
@@ -6414,22 +6414,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T28" t="n">
-        <v>296.6854897332227</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U28" t="n">
-        <v>296.6854897332227</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V28" t="n">
-        <v>296.6854897332227</v>
+        <v>482.9030059873894</v>
       </c>
       <c r="W28" t="n">
-        <v>271.3587474361104</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="X28" t="n">
-        <v>43.36919653809304</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.36919653809304</v>
+        <v>193.4858359504288</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>870.3861466242934</v>
+        <v>841.9120835495614</v>
       </c>
       <c r="C29" t="n">
-        <v>870.3861466242934</v>
+        <v>841.9120835495614</v>
       </c>
       <c r="D29" t="n">
-        <v>870.3861466242934</v>
+        <v>841.9120835495614</v>
       </c>
       <c r="E29" t="n">
-        <v>870.3861466242934</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="F29" t="n">
-        <v>459.4002418346858</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G29" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H29" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I29" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J29" t="n">
-        <v>152.5078184301904</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K29" t="n">
-        <v>366.8168396232721</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L29" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M29" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N29" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O29" t="n">
-        <v>1761.960612545597</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P29" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q29" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R29" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S29" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T29" t="n">
-        <v>1826.151173794699</v>
+        <v>1958.285829056567</v>
       </c>
       <c r="U29" t="n">
-        <v>1826.151173794699</v>
+        <v>1958.285829056567</v>
       </c>
       <c r="V29" t="n">
-        <v>1495.088286451128</v>
+        <v>1958.285829056567</v>
       </c>
       <c r="W29" t="n">
-        <v>1260.525478600105</v>
+        <v>1605.517173786453</v>
       </c>
       <c r="X29" t="n">
-        <v>1260.525478600105</v>
+        <v>1232.051415525373</v>
       </c>
       <c r="Y29" t="n">
-        <v>870.3861466242934</v>
+        <v>841.9120835495614</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>472.5150477558424</v>
+        <v>672.7603567217845</v>
       </c>
       <c r="C30" t="n">
-        <v>298.0620184747154</v>
+        <v>498.3073274406576</v>
       </c>
       <c r="D30" t="n">
-        <v>298.0620184747154</v>
+        <v>349.3729177794063</v>
       </c>
       <c r="E30" t="n">
-        <v>138.8245634692599</v>
+        <v>190.1354627739508</v>
       </c>
       <c r="F30" t="n">
-        <v>138.8245634692599</v>
+        <v>43.60090480083576</v>
       </c>
       <c r="G30" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H30" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I30" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J30" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K30" t="n">
         <v>246.6448318504519</v>
@@ -6569,25 +6569,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S30" t="n">
-        <v>1627.262386835205</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T30" t="n">
-        <v>1432.552065309181</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U30" t="n">
-        <v>1204.450475442445</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V30" t="n">
-        <v>969.2983672107021</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W30" t="n">
-        <v>969.2983672107021</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X30" t="n">
-        <v>761.4468670051692</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="Y30" t="n">
-        <v>640.7303847759104</v>
+        <v>840.9756937418526</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>191.2822901204862</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="C31" t="n">
-        <v>191.2822901204862</v>
+        <v>321.1098614248255</v>
       </c>
       <c r="D31" t="n">
         <v>191.2822901204862</v>
       </c>
       <c r="E31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J31" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K31" t="n">
-        <v>92.71685897981521</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L31" t="n">
         <v>185.7706748018941</v>
@@ -6666,7 +6666,7 @@
         <v>321.1098614248255</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.2822901204862</v>
+        <v>321.1098614248255</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>983.476445399695</v>
+        <v>721.0231940540764</v>
       </c>
       <c r="C32" t="n">
-        <v>983.476445399695</v>
+        <v>721.0231940540764</v>
       </c>
       <c r="D32" t="n">
-        <v>625.2107467929445</v>
+        <v>721.0231940540764</v>
       </c>
       <c r="E32" t="n">
-        <v>625.2107467929445</v>
+        <v>335.2349414558321</v>
       </c>
       <c r="F32" t="n">
-        <v>214.224842003337</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="G32" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H32" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I32" t="n">
         <v>43.36919653809306</v>
@@ -6730,22 +6730,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T32" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U32" t="n">
-        <v>1704.678664719077</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V32" t="n">
-        <v>1373.615777375507</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W32" t="n">
-        <v>1373.615777375507</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X32" t="n">
-        <v>1373.615777375507</v>
+        <v>1111.162526029888</v>
       </c>
       <c r="Y32" t="n">
-        <v>983.476445399695</v>
+        <v>721.0231940540764</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>755.9255995138416</v>
+        <v>287.7589731305112</v>
       </c>
       <c r="C33" t="n">
-        <v>581.4725702327146</v>
+        <v>287.7589731305112</v>
       </c>
       <c r="D33" t="n">
-        <v>581.4725702327146</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="E33" t="n">
-        <v>422.235115227259</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="F33" t="n">
-        <v>275.700557254144</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G33" t="n">
         <v>138.8245634692599</v>
@@ -6821,10 +6821,10 @@
         <v>854.0256709807825</v>
       </c>
       <c r="X33" t="n">
-        <v>755.9255995138416</v>
+        <v>646.1741707752496</v>
       </c>
       <c r="Y33" t="n">
-        <v>755.9255995138416</v>
+        <v>455.9743101505792</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.4403626067944</v>
+        <v>509.311966376246</v>
       </c>
       <c r="C34" t="n">
-        <v>43.36919653809306</v>
+        <v>340.3757834483391</v>
       </c>
       <c r="D34" t="n">
-        <v>43.36919653809306</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="E34" t="n">
-        <v>43.36919653809306</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F34" t="n">
         <v>43.36919653809306</v>
@@ -6882,28 +6882,28 @@
         <v>520.2893470405991</v>
       </c>
       <c r="R34" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S34" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T34" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U34" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V34" t="n">
-        <v>156.4403626067944</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W34" t="n">
-        <v>156.4403626067944</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X34" t="n">
-        <v>156.4403626067944</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y34" t="n">
-        <v>156.4403626067944</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1335.127537179187</v>
+        <v>965.3101693848405</v>
       </c>
       <c r="C35" t="n">
-        <v>1335.127537179187</v>
+        <v>596.3476524444288</v>
       </c>
       <c r="D35" t="n">
-        <v>1335.127537179187</v>
+        <v>596.3476524444288</v>
       </c>
       <c r="E35" t="n">
-        <v>949.3392845809428</v>
+        <v>533.3082392843501</v>
       </c>
       <c r="F35" t="n">
-        <v>538.3533797913353</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="G35" t="n">
         <v>122.3223344947425</v>
@@ -6934,55 +6934,55 @@
         <v>122.3223344947425</v>
       </c>
       <c r="I35" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J35" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K35" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L35" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711863</v>
       </c>
       <c r="M35" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N35" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O35" t="n">
-        <v>1761.960612545597</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P35" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q35" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R35" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S35" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T35" t="n">
-        <v>2036.325171642784</v>
+        <v>1958.285829056567</v>
       </c>
       <c r="U35" t="n">
-        <v>2036.325171642784</v>
+        <v>1704.678664719076</v>
       </c>
       <c r="V35" t="n">
-        <v>1725.266869154999</v>
+        <v>1704.678664719076</v>
       </c>
       <c r="W35" t="n">
-        <v>1725.266869154999</v>
+        <v>1351.910009448962</v>
       </c>
       <c r="X35" t="n">
-        <v>1725.266869154999</v>
+        <v>1351.910009448962</v>
       </c>
       <c r="Y35" t="n">
-        <v>1335.127537179187</v>
+        <v>1351.910009448962</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>755.9255995138416</v>
+        <v>366.7566354804713</v>
       </c>
       <c r="C36" t="n">
-        <v>581.4725702327146</v>
+        <v>192.3036061993443</v>
       </c>
       <c r="D36" t="n">
-        <v>581.4725702327146</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="E36" t="n">
-        <v>422.235115227259</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F36" t="n">
-        <v>275.700557254144</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G36" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H36" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I36" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J36" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K36" t="n">
         <v>246.6448318504519</v>
@@ -7043,25 +7043,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S36" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T36" t="n">
-        <v>1641.63199136059</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U36" t="n">
-        <v>1413.530401493854</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="V36" t="n">
-        <v>1178.378293262111</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="W36" t="n">
-        <v>924.1409365339096</v>
+        <v>715.0610104825005</v>
       </c>
       <c r="X36" t="n">
-        <v>924.1409365339096</v>
+        <v>574.5169342454253</v>
       </c>
       <c r="Y36" t="n">
-        <v>924.1409365339096</v>
+        <v>366.7566354804713</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>190.2591440360034</v>
+        <v>75.89291058969255</v>
       </c>
       <c r="C37" t="n">
-        <v>190.2591440360034</v>
+        <v>75.89291058969255</v>
       </c>
       <c r="D37" t="n">
-        <v>190.2591440360034</v>
+        <v>75.89291058969255</v>
       </c>
       <c r="E37" t="n">
-        <v>190.2591440360034</v>
+        <v>75.89291058969255</v>
       </c>
       <c r="F37" t="n">
-        <v>43.36919653809306</v>
+        <v>75.89291058969255</v>
       </c>
       <c r="G37" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H37" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I37" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J37" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K37" t="n">
-        <v>92.71685897981521</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L37" t="n">
         <v>185.7706748018941</v>
@@ -7125,22 +7125,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T37" t="n">
-        <v>520.2893470405991</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="U37" t="n">
-        <v>479.676314072964</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="V37" t="n">
-        <v>479.676314072964</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="W37" t="n">
-        <v>190.2591440360034</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2591440360034</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.2591440360034</v>
+        <v>75.89291058969255</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>764.6477322661488</v>
+        <v>787.9888459865265</v>
       </c>
       <c r="C38" t="n">
-        <v>764.6477322661488</v>
+        <v>787.9888459865265</v>
       </c>
       <c r="D38" t="n">
-        <v>764.6477322661488</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="E38" t="n">
-        <v>764.6477322661488</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="F38" t="n">
-        <v>353.6618274765412</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="G38" t="n">
-        <v>43.36919653809306</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H38" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I38" t="n">
         <v>43.36919653809306</v>
@@ -7177,16 +7177,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K38" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L38" t="n">
-        <v>669.5878927711867</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M38" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N38" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O38" t="n">
         <v>1761.960612545596</v>
@@ -7210,16 +7210,16 @@
         <v>1914.852662567162</v>
       </c>
       <c r="V38" t="n">
-        <v>1914.852662567162</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W38" t="n">
-        <v>1914.852662567162</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="X38" t="n">
-        <v>1541.386904306082</v>
+        <v>857.5553616923974</v>
       </c>
       <c r="Y38" t="n">
-        <v>1151.24757233027</v>
+        <v>787.9888459865265</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>809.4046422439259</v>
+        <v>670.0222848827482</v>
       </c>
       <c r="C39" t="n">
-        <v>634.9516129627989</v>
+        <v>495.5692556016212</v>
       </c>
       <c r="D39" t="n">
-        <v>486.0172033015477</v>
+        <v>346.6348459403699</v>
       </c>
       <c r="E39" t="n">
-        <v>326.7797482960922</v>
+        <v>187.3973909349144</v>
       </c>
       <c r="F39" t="n">
         <v>180.2451903229772</v>
@@ -7277,28 +7277,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R39" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S39" t="n">
-        <v>1627.262386835205</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T39" t="n">
-        <v>1627.262386835205</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="U39" t="n">
-        <v>1399.160796968469</v>
+        <v>1367.172048607646</v>
       </c>
       <c r="V39" t="n">
-        <v>1164.008688736726</v>
+        <v>1132.019940375904</v>
       </c>
       <c r="W39" t="n">
-        <v>909.7713320085245</v>
+        <v>877.782583647702</v>
       </c>
       <c r="X39" t="n">
-        <v>909.7713320085245</v>
+        <v>877.782583647702</v>
       </c>
       <c r="Y39" t="n">
-        <v>909.7713320085245</v>
+        <v>670.0222848827482</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>190.2591440360034</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="C40" t="n">
-        <v>190.2591440360034</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="D40" t="n">
-        <v>190.2591440360034</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="E40" t="n">
-        <v>190.2591440360034</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="F40" t="n">
-        <v>43.36919653809306</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G40" t="n">
         <v>43.36919653809306</v>
@@ -7362,22 +7362,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T40" t="n">
-        <v>479.676314072964</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U40" t="n">
-        <v>479.676314072964</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V40" t="n">
-        <v>479.676314072964</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="W40" t="n">
-        <v>190.2591440360034</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2591440360034</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.2591440360034</v>
+        <v>265.6048588347122</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>725.4207064305285</v>
+        <v>411.8790769960346</v>
       </c>
       <c r="C41" t="n">
-        <v>459.4002418346858</v>
+        <v>411.8790769960346</v>
       </c>
       <c r="D41" t="n">
-        <v>459.4002418346858</v>
+        <v>53.61337838928409</v>
       </c>
       <c r="E41" t="n">
-        <v>459.4002418346858</v>
+        <v>53.61337838928409</v>
       </c>
       <c r="F41" t="n">
-        <v>459.4002418346858</v>
+        <v>53.61337838928409</v>
       </c>
       <c r="G41" t="n">
-        <v>43.36919653809306</v>
+        <v>53.61337838928409</v>
       </c>
       <c r="H41" t="n">
-        <v>43.36919653809306</v>
+        <v>53.61337838928409</v>
       </c>
       <c r="I41" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J41" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K41" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L41" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M41" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N41" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O41" t="n">
         <v>1761.960612545596</v>
@@ -7438,25 +7438,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S41" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T41" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U41" t="n">
-        <v>1782.718007305293</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V41" t="n">
-        <v>1451.655119961722</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W41" t="n">
-        <v>1098.886464691608</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="X41" t="n">
-        <v>725.4207064305285</v>
+        <v>1188.618249035968</v>
       </c>
       <c r="Y41" t="n">
-        <v>725.4207064305285</v>
+        <v>798.4789170601564</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.0879961965222</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="C42" t="n">
-        <v>424.6349669153952</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="D42" t="n">
-        <v>275.700557254144</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E42" t="n">
-        <v>275.700557254144</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F42" t="n">
-        <v>275.700557254144</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G42" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H42" t="n">
         <v>43.36919653809306</v>
@@ -7514,28 +7514,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R42" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S42" t="n">
-        <v>1766.227047333487</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T42" t="n">
-        <v>1766.227047333487</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U42" t="n">
-        <v>1538.125457466751</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V42" t="n">
-        <v>1302.973349235008</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="W42" t="n">
-        <v>1048.735992506806</v>
+        <v>918.2243703534207</v>
       </c>
       <c r="X42" t="n">
-        <v>840.8844923012737</v>
+        <v>710.3728701478879</v>
       </c>
       <c r="Y42" t="n">
-        <v>767.3033332165903</v>
+        <v>502.6125713829339</v>
       </c>
     </row>
     <row r="43">
@@ -7599,16 +7599,16 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T43" t="n">
-        <v>332.4955175640695</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U43" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V43" t="n">
-        <v>43.36919653809306</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="W43" t="n">
-        <v>43.36919653809306</v>
+        <v>265.6048588347122</v>
       </c>
       <c r="X43" t="n">
         <v>43.36919653809306</v>
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1651.369847936742</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="C44" t="n">
-        <v>1282.40733099633</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="D44" t="n">
-        <v>924.1416323895796</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="E44" t="n">
-        <v>538.3533797913353</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="F44" t="n">
-        <v>538.3533797913353</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G44" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H44" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I44" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J44" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K44" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L44" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M44" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N44" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O44" t="n">
         <v>1761.960612545596</v>
@@ -7669,31 +7669,31 @@
         <v>2021.630958172447</v>
       </c>
       <c r="Q44" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R44" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S44" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T44" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U44" t="n">
-        <v>2041.509179912553</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V44" t="n">
-        <v>2041.509179912553</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W44" t="n">
-        <v>2041.509179912553</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="X44" t="n">
-        <v>2041.509179912553</v>
+        <v>857.5553616923969</v>
       </c>
       <c r="Y44" t="n">
-        <v>1651.369847936742</v>
+        <v>467.4160297165852</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>904.8600091750928</v>
+        <v>313.2775927503869</v>
       </c>
       <c r="C45" t="n">
-        <v>730.4069798939659</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="D45" t="n">
-        <v>581.4725702327146</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="E45" t="n">
-        <v>422.235115227259</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="F45" t="n">
-        <v>275.700557254144</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G45" t="n">
         <v>138.8245634692599</v>
       </c>
       <c r="H45" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I45" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J45" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K45" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L45" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M45" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N45" t="n">
         <v>1166.88538687358</v>
@@ -7745,34 +7745,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P45" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q45" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R45" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S45" t="n">
-        <v>1627.262386835205</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T45" t="n">
-        <v>1432.552065309181</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U45" t="n">
-        <v>1432.552065309181</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V45" t="n">
-        <v>1432.552065309181</v>
+        <v>1151.342085469143</v>
       </c>
       <c r="W45" t="n">
-        <v>1280.835644960115</v>
+        <v>897.1047287409417</v>
       </c>
       <c r="X45" t="n">
-        <v>1280.835644960115</v>
+        <v>689.2532285354089</v>
       </c>
       <c r="Y45" t="n">
-        <v>1073.075346195161</v>
+        <v>481.492929770455</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>341.3989295328219</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="C46" t="n">
-        <v>341.3989295328219</v>
+        <v>62.22684308671555</v>
       </c>
       <c r="D46" t="n">
-        <v>191.2822901204862</v>
+        <v>62.22684308671555</v>
       </c>
       <c r="E46" t="n">
-        <v>43.36919653809306</v>
+        <v>62.22684308671555</v>
       </c>
       <c r="F46" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G46" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H46" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I46" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J46" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K46" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L46" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M46" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N46" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O46" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P46" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q46" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R46" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S46" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T46" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U46" t="n">
-        <v>520.2893470405991</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="V46" t="n">
-        <v>520.2893470405991</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="W46" t="n">
-        <v>520.2893470405991</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="X46" t="n">
-        <v>520.2893470405991</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="Y46" t="n">
-        <v>520.2893470405991</v>
+        <v>231.1630260146225</v>
       </c>
     </row>
   </sheetData>
@@ -22555,10 +22555,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>380.0821138642265</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>357.0810387145868</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.707320657778</v>
@@ -22567,7 +22567,7 @@
         <v>323.1357392253592</v>
       </c>
       <c r="I2" t="n">
-        <v>99.17357415002331</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J2" t="n">
         <v>45.63689302957772</v>
@@ -22606,16 +22606,16 @@
         <v>251.2180195592479</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>277.9572514430103</v>
       </c>
       <c r="W2" t="n">
         <v>299.4459616902884</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>319.9360936513444</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>384.3896824480183</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>116.7381766227427</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22643,7 +22643,7 @@
         <v>136.4898938890125</v>
       </c>
       <c r="H3" t="n">
-        <v>54.19623348224745</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I3" t="n">
         <v>70.13228042782632</v>
@@ -22676,7 +22676,7 @@
         <v>92.6799817290989</v>
       </c>
       <c r="S3" t="n">
-        <v>111.9680509922885</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T3" t="n">
         <v>196.7240278659264</v>
@@ -22688,13 +22688,13 @@
         <v>183.0055801223006</v>
       </c>
       <c r="W3" t="n">
-        <v>201.899976133795</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>155.9779781763528</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>161.823253587813</v>
       </c>
     </row>
     <row r="4">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>345.1637646527952</v>
+        <v>332.9388346363559</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,25 +22792,25 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>332.1353630451371</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.5725223992679</v>
+        <v>363.9123136306533</v>
       </c>
       <c r="H5" t="n">
-        <v>321.7552365603931</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I5" t="n">
-        <v>143.7717713159392</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
-        <v>34.19605933636038</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -22825,34 +22825,34 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.46192228085542</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R5" t="n">
-        <v>106.8999125420449</v>
+        <v>115.3674336481769</v>
       </c>
       <c r="S5" t="n">
-        <v>169.5927926334236</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T5" t="n">
-        <v>215.5218328944231</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2072356985671</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>325.9040022620997</v>
       </c>
       <c r="W5" t="n">
-        <v>275.7765669806856</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>296.2666989417417</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>312.7735369193261</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.0116232670578</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>95.2742053662592</v>
       </c>
       <c r="G6" t="n">
-        <v>62.95336872557376</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H6" t="n">
-        <v>103.294680046134</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>67.64908349938912</v>
+        <v>70.13228042782632</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,31 +22907,31 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R6" t="n">
-        <v>14.73760091989288</v>
+        <v>92.6799817290989</v>
       </c>
       <c r="S6" t="n">
-        <v>154.4878321636994</v>
+        <v>155.8274931817798</v>
       </c>
       <c r="T6" t="n">
-        <v>196.4333198433488</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U6" t="n">
-        <v>152.4160759560297</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>183.0055801223006</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>155.9779781763528</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>161.823253587813</v>
       </c>
     </row>
     <row r="7">
@@ -22956,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2148644222634</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H7" t="n">
-        <v>155.3268051656304</v>
+        <v>155.8644016137399</v>
       </c>
       <c r="I7" t="n">
-        <v>132.1105821187667</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J7" t="n">
-        <v>72.12409545038793</v>
+        <v>76.39903162313584</v>
       </c>
       <c r="K7" t="n">
-        <v>38.84281376529884</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L7" t="n">
-        <v>19.49755203998329</v>
+        <v>28.48717608127421</v>
       </c>
       <c r="M7" t="n">
-        <v>17.2662399038262</v>
+        <v>26.74453801706942</v>
       </c>
       <c r="N7" t="n">
-        <v>8.918792456364031</v>
+        <v>18.17171782551226</v>
       </c>
       <c r="O7" t="n">
-        <v>28.75622001580066</v>
+        <v>37.30279422357805</v>
       </c>
       <c r="P7" t="n">
-        <v>43.86043031148982</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.51595910858246</v>
+        <v>91.57915019604307</v>
       </c>
       <c r="R7" t="n">
-        <v>142.3964416096969</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S7" t="n">
-        <v>210.4910313761868</v>
+        <v>211.5447863772357</v>
       </c>
       <c r="T7" t="n">
-        <v>224.6294619736288</v>
+        <v>224.8878160949084</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2766958145166</v>
+        <v>286.2799939522351</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23023,28 +23023,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>266.5240607329748</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>242.5703814957592</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>269.8177099473381</v>
+        <v>289.2654207831596</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.3887043444878</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H8" t="n">
-        <v>319.8727099068761</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I8" t="n">
-        <v>136.685125759028</v>
+        <v>81.5904173739317</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946464</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771682</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>95.3531516584621</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S8" t="n">
-        <v>165.4040387101212</v>
+        <v>74.43607637216456</v>
       </c>
       <c r="T8" t="n">
-        <v>214.717169359623</v>
+        <v>122.3782128463251</v>
       </c>
       <c r="U8" t="n">
-        <v>139.079870129261</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>80.04354969921354</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>132.4156726563193</v>
+        <v>64.98013116629875</v>
       </c>
       <c r="F9" t="n">
-        <v>32.95655226846017</v>
+        <v>63.44992505954265</v>
       </c>
       <c r="G9" t="n">
-        <v>24.20675900740713</v>
+        <v>43.69431484884211</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867671</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,25 +23144,25 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S9" t="n">
-        <v>152.6609993460486</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T9" t="n">
-        <v>196.0368949650912</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8740072105222</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>139.5823230359959</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23193,55 +23193,55 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.1324099710516</v>
+        <v>167.1658146852775</v>
       </c>
       <c r="H10" t="n">
-        <v>154.5937101357652</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I10" t="n">
-        <v>129.630951895051</v>
+        <v>130.6355227555885</v>
       </c>
       <c r="J10" t="n">
-        <v>66.29456574971167</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K10" t="n">
-        <v>29.26310570632462</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L10" t="n">
-        <v>7.238823902544752</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M10" t="n">
-        <v>4.341129883412066</v>
+        <v>9.577470677924651</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O10" t="n">
-        <v>17.10165812996878</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P10" t="n">
-        <v>33.88793923037925</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.61152319847201</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R10" t="n">
-        <v>138.6889896488451</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S10" t="n">
-        <v>209.0540751673406</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T10" t="n">
-        <v>224.2771565911783</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2721982989959</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>282.8976208477874</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,16 +23260,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>167.1574544543631</v>
+        <v>189.5105044445885</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.097833230058</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S11" t="n">
         <v>158.7758131900531</v>
@@ -23314,13 +23314,13 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U11" t="n">
-        <v>85.99672338893581</v>
+        <v>63.64367339871052</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038151</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510932</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23342,25 +23342,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I12" t="n">
-        <v>58.90455890409149</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U12" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V12" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>64.16939599459974</v>
+        <v>102.3939965006134</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>40.51015860120992</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849693</v>
       </c>
       <c r="G13" t="n">
         <v>167.0019352027142</v>
@@ -23439,10 +23439,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J13" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R13" t="n">
         <v>132.8223696106904</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>173.4937091346027</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7852275822808</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H14" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I14" t="n">
-        <v>125.4713171199747</v>
+        <v>37.38049896054406</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T14" t="n">
-        <v>25.91829388988694</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U14" t="n">
-        <v>63.64367339871049</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23582,10 +23582,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>137.5417556726903</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.1637893657753</v>
@@ -23627,22 +23627,22 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T15" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U15" t="n">
-        <v>38.33818124377109</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V15" t="n">
-        <v>45.27499998310543</v>
+        <v>46.63564645687825</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>18.24739803715764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="16">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>94.21801639213473</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>173.4937091346027</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>17.04687031890938</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>199.3179262695265</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>123.6311769721465</v>
       </c>
       <c r="G17" t="n">
-        <v>412.5783578272632</v>
+        <v>32.25556922959606</v>
       </c>
       <c r="H17" t="n">
-        <v>311.5737486373496</v>
+        <v>310.0661072569077</v>
       </c>
       <c r="I17" t="n">
-        <v>105.4442416537263</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>44.45022224585185</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>146.9382674488655</v>
+        <v>143.5836595683023</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.5254541783477</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1159255221454</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>36.17272954357438</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23822,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>100.7721334015466</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8858455217234</v>
+        <v>135.8070798189336</v>
       </c>
       <c r="H18" t="n">
-        <v>98.15740496213243</v>
+        <v>97.39669409571535</v>
       </c>
       <c r="I18" t="n">
-        <v>49.33500111545973</v>
+        <v>46.62311178695198</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>55.17599625828851</v>
+        <v>50.28561341314766</v>
       </c>
       <c r="S18" t="n">
-        <v>144.6075596928789</v>
+        <v>143.1445213099196</v>
       </c>
       <c r="T18" t="n">
-        <v>194.2892890521601</v>
+        <v>193.9718079957399</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23901,19 +23901,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>100.4060396525196</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7028819012923</v>
       </c>
       <c r="H19" t="n">
-        <v>151.3619220235667</v>
+        <v>150.7748151155418</v>
       </c>
       <c r="I19" t="n">
-        <v>118.6997094869194</v>
+        <v>116.7138713971991</v>
       </c>
       <c r="J19" t="n">
-        <v>40.59557173277113</v>
+        <v>35.92693121773029</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.17389507836923</v>
+        <v>43.64440455708323</v>
       </c>
       <c r="R19" t="n">
-        <v>122.3449978258043</v>
+        <v>119.375845712214</v>
       </c>
       <c r="S19" t="n">
-        <v>202.7193739290129</v>
+        <v>201.5685723516266</v>
       </c>
       <c r="T19" t="n">
-        <v>222.7240477847025</v>
+        <v>222.4419002931159</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2523713780622</v>
+        <v>286.2487694951909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>20.57277858967291</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>10.25983508269013</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>74.9421865254896</v>
+        <v>32.25556922959606</v>
       </c>
       <c r="H20" t="n">
-        <v>311.5737486373496</v>
+        <v>310.0661072569077</v>
       </c>
       <c r="I20" t="n">
-        <v>105.4442416537263</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>44.45022224585185</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>50.83429241509714</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1277025328068</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>11.60479741563944</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8858455217234</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.15740496213243</v>
+        <v>97.39669409571535</v>
       </c>
       <c r="I21" t="n">
-        <v>49.33500111545973</v>
+        <v>46.62311178695198</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>55.17599625828851</v>
+        <v>50.28561341314766</v>
       </c>
       <c r="S21" t="n">
-        <v>144.6075596928789</v>
+        <v>143.1445213099196</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>193.9718079957399</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>203.477662345616</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>171.979809362508</v>
       </c>
     </row>
     <row r="22">
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>25.90479092258234</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7689164205999</v>
+        <v>166.7028819012923</v>
       </c>
       <c r="H22" t="n">
-        <v>151.3619220235667</v>
+        <v>150.7748151155418</v>
       </c>
       <c r="I22" t="n">
-        <v>118.6997094869194</v>
+        <v>116.7138713971991</v>
       </c>
       <c r="J22" t="n">
-        <v>40.59557173277113</v>
+        <v>35.92693121773029</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.17389507836923</v>
+        <v>43.64440455708323</v>
       </c>
       <c r="R22" t="n">
-        <v>122.3449978258043</v>
+        <v>119.375845712214</v>
       </c>
       <c r="S22" t="n">
-        <v>202.7193739290129</v>
+        <v>201.5685723516266</v>
       </c>
       <c r="T22" t="n">
-        <v>10.94012299369098</v>
+        <v>222.4419002931159</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2523713780622</v>
+        <v>286.2487694951909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>104.6918966836562</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>43.7222486022813</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H23" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I23" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>10.57183584994593</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.5072338470353</v>
@@ -24341,10 +24341,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>117.3913286912161</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>127.0399184606692</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4515011109318</v>
@@ -24417,16 +24417,16 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T25" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>1.354513060649737</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24451,10 +24451,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>274.9528465543077</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>273.9926658598151</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24530,13 +24530,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>80.98733674803067</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>94.50081326185514</v>
@@ -24575,16 +24575,16 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>48.5414246423434</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24654,19 +24654,19 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U28" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>215.1251656811504</v>
       </c>
       <c r="W28" t="n">
-        <v>261.4495234624499</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24688,10 +24688,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>81.40725335161795</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I29" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>117.0237889449002</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24764,19 +24764,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.5072338470353</v>
+        <v>135.27784266692</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I30" t="n">
         <v>36.29946757904885</v>
@@ -24809,10 +24809,10 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>86.17337837033809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>20.08617742691646</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.05535776079893</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>196.0925648502327</v>
       </c>
       <c r="G32" t="n">
-        <v>242.7236458330353</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H32" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I32" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>108.653914451206</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>17.3848337588806</v>
       </c>
     </row>
     <row r="34">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>168.9643733242278</v>
       </c>
       <c r="C34" t="n">
-        <v>55.3063666906135</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4515011109318</v>
@@ -25122,7 +25122,7 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S34" t="n">
         <v>197.1876907596159</v>
@@ -25134,7 +25134,7 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>319.5213510437838</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H35" t="n">
         <v>304.326804756183</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T35" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>19.8045390072279</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I36" t="n">
         <v>36.29946757904885</v>
@@ -25283,10 +25283,10 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S36" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>69.4141128975958</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>66.63434972877309</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4515011109318</v>
+        <v>134.2530241998483</v>
       </c>
       <c r="H37" t="n">
         <v>148.5398113612452</v>
@@ -25365,22 +25365,22 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T37" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>246.028155177758</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>104.6810302145631</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H38" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>317.3670881072414</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>67.17016078291472</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>137.988533787566</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>91.85924346021008</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.5398113612452</v>
@@ -25602,16 +25602,16 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T40" t="n">
-        <v>181.160916096344</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U40" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>101.9126318211233</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H41" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I41" t="n">
-        <v>78.16360657708299</v>
+        <v>68.02186654440386</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T41" t="n">
         <v>208.0722578696039</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>14.59653540225972</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I42" t="n">
         <v>36.29946757904885</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>132.8373482834679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25839,19 +25839,19 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T43" t="n">
-        <v>35.45192755253839</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>5.696349715384201</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>374.7982116604002</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25885,7 +25885,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.8133087092504</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T44" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U44" t="n">
-        <v>125.3899521719375</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25949,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26000,16 +26000,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>211.8921419530715</v>
       </c>
       <c r="W45" t="n">
-        <v>101.4957270153444</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.730466849237928</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>126.751977939795</v>
       </c>
       <c r="G46" t="n">
         <v>166.4515011109318</v>
@@ -26046,7 +26046,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J46" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R46" t="n">
         <v>108.0728512656386</v>
@@ -26079,7 +26079,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>314318.0455466998</v>
+        <v>314318.0455466997</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>341002.523762429</v>
+        <v>314318.0455466997</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>379382.0342027748</v>
+        <v>362616.6230072703</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441595.0580613399</v>
+        <v>441595.0580613401</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>544392.7033332883</v>
+        <v>573513.581840051</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>544392.7033332883</v>
+        <v>573513.581840051</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>684371.1989135395</v>
+        <v>684371.1989135398</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>684371.1989135396</v>
+        <v>684371.1989135398</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>684371.1989135395</v>
+        <v>684371.1989135396</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>684371.1989135396</v>
+        <v>684371.1989135398</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>684371.1989135398</v>
+        <v>684371.19891354</v>
       </c>
     </row>
     <row r="16">
@@ -26316,10 +26316,10 @@
         <v>100818.9957413941</v>
       </c>
       <c r="C2" t="n">
-        <v>109378.1679992696</v>
+        <v>100818.9957413942</v>
       </c>
       <c r="D2" t="n">
-        <v>121688.5770084371</v>
+        <v>116310.9922853508</v>
       </c>
       <c r="E2" t="n">
         <v>141643.6978687317</v>
@@ -26328,10 +26328,10 @@
         <v>141643.6978687317</v>
       </c>
       <c r="G2" t="n">
-        <v>174616.5274842623</v>
+        <v>183957.1866279409</v>
       </c>
       <c r="H2" t="n">
-        <v>174616.5274842623</v>
+        <v>183957.186627941</v>
       </c>
       <c r="I2" t="n">
         <v>219515.2902175502</v>
@@ -26340,22 +26340,22 @@
         <v>219515.2902175503</v>
       </c>
       <c r="K2" t="n">
-        <v>219515.2902175503</v>
+        <v>219515.2902175502</v>
       </c>
       <c r="L2" t="n">
         <v>219515.2902175503</v>
       </c>
       <c r="M2" t="n">
+        <v>219515.2902175502</v>
+      </c>
+      <c r="N2" t="n">
         <v>219515.2902175503</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>219515.2902175502</v>
       </c>
-      <c r="O2" t="n">
-        <v>219515.2902175503</v>
-      </c>
       <c r="P2" t="n">
-        <v>219515.2902175503</v>
+        <v>219515.2902175502</v>
       </c>
     </row>
     <row r="3">
@@ -26368,43 +26368,43 @@
         <v>399106.8526518422</v>
       </c>
       <c r="C3" t="n">
-        <v>38180.34408023355</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>51164.61695028653</v>
+        <v>65327.8903793811</v>
       </c>
       <c r="E3" t="n">
-        <v>80646.21400928599</v>
+        <v>101335.4572062672</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>141609.5458603397</v>
+        <v>181739.865851687</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>186874.9983095364</v>
+        <v>147997.8543656399</v>
       </c>
       <c r="J3" t="n">
-        <v>13028.56481860493</v>
+        <v>13028.56481860499</v>
       </c>
       <c r="K3" t="n">
-        <v>6091.744777621107</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9781.526363726989</v>
+        <v>10849.99655702621</v>
       </c>
       <c r="M3" t="n">
-        <v>18793.20307042409</v>
+        <v>23639.65040155408</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>36124.26218278108</v>
+        <v>46361.41245424692</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>30.96378040239005</v>
       </c>
       <c r="C4" t="n">
-        <v>49.92675977318713</v>
+        <v>30.96378040239008</v>
       </c>
       <c r="D4" t="n">
-        <v>81.37067654131214</v>
+        <v>67.14558386063672</v>
       </c>
       <c r="E4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723339</v>
       </c>
       <c r="F4" t="n">
         <v>137.800118072334</v>
       </c>
       <c r="G4" t="n">
-        <v>240.9290091102034</v>
+        <v>270.7602176271828</v>
       </c>
       <c r="H4" t="n">
-        <v>240.9290091102034</v>
+        <v>270.7602176271828</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469136</v>
@@ -26459,7 +26459,7 @@
         <v>384.3219252469136</v>
       </c>
       <c r="P4" t="n">
-        <v>384.3219252469136</v>
+        <v>384.3219252469135</v>
       </c>
     </row>
     <row r="5">
@@ -26472,37 +26472,37 @@
         <v>45306.68319048216</v>
       </c>
       <c r="C5" t="n">
-        <v>47476.75964516138</v>
+        <v>45306.68319048216</v>
       </c>
       <c r="D5" t="n">
-        <v>50823.37311172271</v>
+        <v>49237.11966583622</v>
       </c>
       <c r="E5" t="n">
+        <v>23358.20041161356</v>
+      </c>
+      <c r="F5" t="n">
         <v>23358.20041161357</v>
       </c>
-      <c r="F5" t="n">
-        <v>23358.20041161356</v>
-      </c>
       <c r="G5" t="n">
-        <v>35301.90916755492</v>
+        <v>38686.60227808922</v>
       </c>
       <c r="H5" t="n">
-        <v>35301.90916755492</v>
+        <v>38686.60227808922</v>
       </c>
       <c r="I5" t="n">
         <v>51571.48185587223</v>
       </c>
       <c r="J5" t="n">
+        <v>51571.48185587223</v>
+      </c>
+      <c r="K5" t="n">
         <v>51571.48185587222</v>
-      </c>
-      <c r="K5" t="n">
-        <v>51571.48185587223</v>
       </c>
       <c r="L5" t="n">
         <v>51571.48185587223</v>
       </c>
       <c r="M5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587222</v>
       </c>
       <c r="N5" t="n">
         <v>51571.48185587223</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-358221.0189666812</v>
+        <v>-345085.0553898675</v>
       </c>
       <c r="C6" t="n">
-        <v>9579.103149804349</v>
+        <v>54021.79726197477</v>
       </c>
       <c r="D6" t="n">
-        <v>6251.323612011041</v>
+        <v>310.4145391730408</v>
       </c>
       <c r="E6" t="n">
-        <v>25307.42131072513</v>
+        <v>15592.8339308751</v>
       </c>
       <c r="F6" t="n">
-        <v>105953.6353200111</v>
+        <v>116928.2911371423</v>
       </c>
       <c r="G6" t="n">
-        <v>-12790.34035909884</v>
+        <v>-37710.54504631173</v>
       </c>
       <c r="H6" t="n">
-        <v>128819.2055012408</v>
+        <v>144029.3208053753</v>
       </c>
       <c r="I6" t="n">
-        <v>-26928.89198926822</v>
+        <v>18800.29405917488</v>
       </c>
       <c r="J6" t="n">
-        <v>146917.5415016633</v>
+        <v>153769.5836062098</v>
       </c>
       <c r="K6" t="n">
-        <v>153854.3615426471</v>
+        <v>166798.1484248148</v>
       </c>
       <c r="L6" t="n">
-        <v>150164.5799565412</v>
+        <v>155948.1518677886</v>
       </c>
       <c r="M6" t="n">
-        <v>141152.9032498441</v>
+        <v>143158.4980232608</v>
       </c>
       <c r="N6" t="n">
-        <v>159946.1063202682</v>
+        <v>166798.1484248148</v>
       </c>
       <c r="O6" t="n">
-        <v>123821.8441374871</v>
+        <v>120436.7359705679</v>
       </c>
       <c r="P6" t="n">
-        <v>159946.1063202682</v>
+        <v>166798.1484248148</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>430.3910100719429</v>
+        <v>396.859943267568</v>
       </c>
       <c r="D3" t="n">
-        <v>476.1157511985022</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="F3" t="n">
         <v>548.4699409129046</v>
       </c>
       <c r="G3" t="n">
-        <v>677.6894473581233</v>
+        <v>714.3085898831961</v>
       </c>
       <c r="H3" t="n">
-        <v>677.6894473581233</v>
+        <v>714.3085898831961</v>
       </c>
       <c r="I3" t="n">
         <v>853.7106645376841</v>
@@ -26779,7 +26779,7 @@
         <v>853.7106645376841</v>
       </c>
       <c r="P3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537684</v>
       </c>
     </row>
     <row r="4">
@@ -26792,37 +26792,37 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>73.46440173672741</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="D4" t="n">
-        <v>112.1126601249237</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="E4" t="n">
+        <v>187.5255871663198</v>
+      </c>
+      <c r="F4" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="F4" t="n">
-        <v>187.5255871663198</v>
-      </c>
       <c r="G4" t="n">
-        <v>337.6361713017736</v>
+        <v>380.1755759644005</v>
       </c>
       <c r="H4" t="n">
-        <v>337.6361713017736</v>
+        <v>380.1755759644005</v>
       </c>
       <c r="I4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="J4" t="n">
+        <v>542.1149567261632</v>
+      </c>
+      <c r="K4" t="n">
         <v>542.114956726163</v>
-      </c>
-      <c r="K4" t="n">
-        <v>542.1149567261632</v>
       </c>
       <c r="L4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="M4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.114956726163</v>
       </c>
       <c r="N4" t="n">
         <v>542.1149567261632</v>
@@ -26831,7 +26831,7 @@
         <v>542.1149567261632</v>
       </c>
       <c r="P4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261631</v>
       </c>
     </row>
   </sheetData>
@@ -26962,25 +26962,25 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>33.53106680437492</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>45.72474112655925</v>
+        <v>60.73137549659748</v>
       </c>
       <c r="E3" t="n">
-        <v>72.35418971440237</v>
+        <v>90.87862214873894</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>129.2195064452188</v>
+        <v>165.8386489702915</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>176.0212171795608</v>
+        <v>139.402074654488</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,43 +27014,43 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>23.66939470960278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>38.6482583881963</v>
+        <v>42.86994226197751</v>
       </c>
       <c r="E4" t="n">
-        <v>75.41292704139616</v>
+        <v>94.86063787721761</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>150.1105841354537</v>
+        <v>192.6499887980807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>204.4787854243896</v>
+        <v>161.9393807617627</v>
       </c>
       <c r="J4" t="n">
-        <v>49.79500702712437</v>
+        <v>49.7950070271246</v>
       </c>
       <c r="K4" t="n">
-        <v>23.66939470960301</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>38.6482583881963</v>
+        <v>42.86994226197774</v>
       </c>
       <c r="M4" t="n">
-        <v>75.41292704139616</v>
+        <v>94.86063787721739</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>150.1105841354537</v>
+        <v>192.6499887980807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27260,19 +27260,19 @@
         <v>49.79500702712463</v>
       </c>
       <c r="K4" t="n">
-        <v>23.66939470960278</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>38.6482583881963</v>
+        <v>42.86994226197751</v>
       </c>
       <c r="M4" t="n">
-        <v>75.41292704139616</v>
+        <v>94.86063787721761</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>150.1105841354537</v>
+        <v>192.6499887980807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31138,13 +31138,13 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M3" t="n">
-        <v>163.8914845489273</v>
+        <v>191.9290409491429</v>
       </c>
       <c r="N3" t="n">
         <v>181.1367191104579</v>
       </c>
       <c r="O3" t="n">
-        <v>192.3912514715691</v>
+        <v>164.3536950713535</v>
       </c>
       <c r="P3" t="n">
         <v>163.0046057545602</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.730215115867106</v>
+        <v>1.595416857357056</v>
       </c>
       <c r="H5" t="n">
-        <v>17.719565555374</v>
+        <v>16.33906289040796</v>
       </c>
       <c r="I5" t="n">
-        <v>66.70411825446666</v>
+        <v>61.50730839325797</v>
       </c>
       <c r="J5" t="n">
-        <v>146.8498451903259</v>
+        <v>135.4090114971086</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>202.9430070690328</v>
       </c>
       <c r="L5" t="n">
-        <v>273.0409218971986</v>
+        <v>251.7687457173739</v>
       </c>
       <c r="M5" t="n">
-        <v>303.8106349640001</v>
+        <v>280.1412402543974</v>
       </c>
       <c r="N5" t="n">
-        <v>302.8774653333184</v>
+        <v>279.2080706237156</v>
       </c>
       <c r="O5" t="n">
-        <v>291.5217821035541</v>
+        <v>268.8097920250189</v>
       </c>
       <c r="P5" t="n">
-        <v>248.8070964305848</v>
+        <v>229.4229383590166</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.8437675935941</v>
+        <v>172.2870721549169</v>
       </c>
       <c r="R5" t="n">
-        <v>108.6856252720872</v>
+        <v>100.2181041659553</v>
       </c>
       <c r="S5" t="n">
-        <v>39.42727695282172</v>
+        <v>36.35556163702395</v>
       </c>
       <c r="T5" t="n">
-        <v>7.57401666970826</v>
+        <v>6.983937293080517</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1384172092693684</v>
+        <v>0.1276333485885645</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9257467009094621</v>
+        <v>0.8536232741981653</v>
       </c>
       <c r="H6" t="n">
-        <v>8.940764190362438</v>
+        <v>8.244203727124386</v>
       </c>
       <c r="I6" t="n">
-        <v>31.87329650061087</v>
+        <v>29.39009957217367</v>
       </c>
       <c r="J6" t="n">
-        <v>87.46276177320495</v>
+        <v>80.64867960308193</v>
       </c>
       <c r="K6" t="n">
-        <v>149.4877907341389</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>201.0047825812409</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
-        <v>169.1952146443986</v>
+        <v>191.929040949143</v>
       </c>
       <c r="N6" t="n">
-        <v>204.8061138200607</v>
+        <v>181.136719110458</v>
       </c>
       <c r="O6" t="n">
-        <v>216.0606461811718</v>
+        <v>192.3912514715691</v>
       </c>
       <c r="P6" t="n">
-        <v>176.7770169482288</v>
+        <v>134.9670493543446</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.1707543125833</v>
+        <v>108.96426215905</v>
       </c>
       <c r="R6" t="n">
-        <v>57.47750130734365</v>
+        <v>52.99952223486505</v>
       </c>
       <c r="S6" t="n">
-        <v>17.19533894013846</v>
+        <v>15.85567792205802</v>
       </c>
       <c r="T6" t="n">
-        <v>3.731408851472787</v>
+        <v>3.440700828895235</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0609043882177278</v>
+        <v>0.05615942593408984</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7761149361953068</v>
+        <v>0.7156490780234833</v>
       </c>
       <c r="H7" t="n">
-        <v>6.900367341809188</v>
+        <v>6.362770893699701</v>
       </c>
       <c r="I7" t="n">
-        <v>23.3398928084916</v>
+        <v>21.52151954637894</v>
       </c>
       <c r="J7" t="n">
-        <v>54.87132598900818</v>
+        <v>50.59638981626026</v>
       </c>
       <c r="K7" t="n">
-        <v>90.17044440523654</v>
+        <v>83.14541106491014</v>
       </c>
       <c r="L7" t="n">
-        <v>115.387124241255</v>
+        <v>106.3975001999641</v>
       </c>
       <c r="M7" t="n">
-        <v>121.6595440437789</v>
+        <v>112.1812459305356</v>
       </c>
       <c r="N7" t="n">
-        <v>118.7667520088692</v>
+        <v>109.5138266397209</v>
       </c>
       <c r="O7" t="n">
-        <v>109.7003184360421</v>
+        <v>101.1537442282647</v>
       </c>
       <c r="P7" t="n">
-        <v>93.86757373765779</v>
+        <v>86.55450303658561</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.98904252086338</v>
+        <v>59.92585143340277</v>
       </c>
       <c r="R7" t="n">
-        <v>34.89694976747261</v>
+        <v>32.17818490821952</v>
       </c>
       <c r="S7" t="n">
-        <v>13.52556666078548</v>
+        <v>12.47181165973652</v>
       </c>
       <c r="T7" t="n">
-        <v>3.316127454652674</v>
+        <v>3.057773333373064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04233354197428951</v>
+        <v>0.0390354042558264</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.914033170647244</v>
+        <v>1.839563090509207</v>
       </c>
       <c r="H8" t="n">
-        <v>19.60209220889109</v>
+        <v>18.83942550067742</v>
       </c>
       <c r="I8" t="n">
-        <v>73.79076381137793</v>
+        <v>70.91975604685626</v>
       </c>
       <c r="J8" t="n">
-        <v>162.4511728172216</v>
+        <v>156.1306178531059</v>
       </c>
       <c r="K8" t="n">
-        <v>243.4721969307195</v>
+        <v>233.9993234743607</v>
       </c>
       <c r="L8" t="n">
-        <v>302.0487895769152</v>
+        <v>290.2968524055319</v>
       </c>
       <c r="M8" t="n">
-        <v>336.087476975413</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N8" t="n">
-        <v>341.5257237215146</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O8" t="n">
-        <v>322.493056380891</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P8" t="n">
-        <v>275.2403624805372</v>
+        <v>264.5314718690873</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.6940495567327</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R8" t="n">
-        <v>120.23238615567</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S8" t="n">
-        <v>43.61603087612411</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T8" t="n">
-        <v>8.378680204508314</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1471650472407365</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.024098030879797</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H9" t="n">
-        <v>9.890630982444359</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I9" t="n">
-        <v>35.25951553687022</v>
+        <v>33.88765898395</v>
       </c>
       <c r="J9" t="n">
-        <v>96.75480562798998</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K9" t="n">
-        <v>165.3693736969364</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L9" t="n">
-        <v>222.3595307837911</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M9" t="n">
-        <v>199.9629954989597</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N9" t="n">
-        <v>243.454372208257</v>
+        <v>163.7876250036813</v>
       </c>
       <c r="O9" t="n">
-        <v>243.6589731628788</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177395</v>
+        <v>187.9491588335306</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.7252153102001</v>
+        <v>125.6390352953988</v>
       </c>
       <c r="R9" t="n">
-        <v>63.58391107515094</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S9" t="n">
-        <v>19.0221717577892</v>
+        <v>18.28206825439849</v>
       </c>
       <c r="T9" t="n">
-        <v>4.127833729730409</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.06475348850436308</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H10" t="n">
-        <v>7.633462371674351</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I10" t="n">
-        <v>25.8195230322073</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J10" t="n">
-        <v>60.70085568968445</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K10" t="n">
-        <v>99.75015246421076</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L10" t="n">
-        <v>127.6458523786935</v>
+        <v>122.6794824109699</v>
       </c>
       <c r="M10" t="n">
-        <v>134.584654064193</v>
+        <v>129.3483132696804</v>
       </c>
       <c r="N10" t="n">
-        <v>131.3845318020392</v>
+        <v>126.272699487823</v>
       </c>
       <c r="O10" t="n">
-        <v>121.354880321874</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P10" t="n">
-        <v>103.8400648187684</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.89347843097383</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R10" t="n">
-        <v>38.60440172832445</v>
+        <v>37.102404305042</v>
       </c>
       <c r="S10" t="n">
-        <v>14.96252286963161</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T10" t="n">
-        <v>3.668432837103212</v>
+        <v>3.52570360359275</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04683105749493469</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,31 +31752,31 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J11" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K11" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O11" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P11" t="n">
         <v>317.0679923244294</v>
@@ -31788,10 +31788,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U11" t="n">
         <v>0.1763923428061601</v>
@@ -31834,7 +31834,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H12" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I12" t="n">
         <v>40.6178210959085</v>
@@ -31843,7 +31843,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L12" t="n">
         <v>256.1509851405032</v>
@@ -31852,7 +31852,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O12" t="n">
         <v>280.6872536292673</v>
@@ -31861,19 +31861,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R12" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S12" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K13" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L13" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O13" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R13" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T13" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.72437968787185</v>
+        <v>2.871592321138475</v>
       </c>
       <c r="H17" t="n">
-        <v>27.90105347841759</v>
+        <v>29.40869485885941</v>
       </c>
       <c r="I17" t="n">
-        <v>105.0316479166796</v>
+        <v>110.7070629606911</v>
       </c>
       <c r="J17" t="n">
-        <v>231.2283205335137</v>
+        <v>243.7228087662268</v>
       </c>
       <c r="K17" t="n">
-        <v>346.5513127211291</v>
+        <v>365.2773117200185</v>
       </c>
       <c r="L17" t="n">
-        <v>429.9275475938374</v>
+        <v>453.1588052180602</v>
       </c>
       <c r="M17" t="n">
-        <v>478.3772348680284</v>
+        <v>504.2264851591065</v>
       </c>
       <c r="N17" t="n">
-        <v>486.1178786561943</v>
+        <v>512.3853968415413</v>
       </c>
       <c r="O17" t="n">
-        <v>459.0273281349186</v>
+        <v>483.8310006982205</v>
       </c>
       <c r="P17" t="n">
-        <v>391.7692045905822</v>
+        <v>412.9385652701144</v>
       </c>
       <c r="Q17" t="n">
-        <v>294.2023570186715</v>
+        <v>310.0996652693427</v>
       </c>
       <c r="R17" t="n">
-        <v>171.1353155682803</v>
+        <v>180.3826611427149</v>
       </c>
       <c r="S17" t="n">
-        <v>62.08180213737985</v>
+        <v>65.43641001794306</v>
       </c>
       <c r="T17" t="n">
-        <v>11.92597208365903</v>
+        <v>12.57039538578368</v>
       </c>
       <c r="U17" t="n">
-        <v>0.217950375029748</v>
+        <v>0.2297273856910779</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.457671641487284</v>
+        <v>1.536437344277063</v>
       </c>
       <c r="H18" t="n">
-        <v>14.07803927436404</v>
+        <v>14.83875014078111</v>
       </c>
       <c r="I18" t="n">
-        <v>50.18737888454027</v>
+        <v>52.89926821304802</v>
       </c>
       <c r="J18" t="n">
-        <v>137.7180036371824</v>
+        <v>145.1596352327729</v>
       </c>
       <c r="K18" t="n">
-        <v>235.3820036168304</v>
+        <v>248.1009372993362</v>
       </c>
       <c r="L18" t="n">
-        <v>316.5001518062632</v>
+        <v>333.6023277562983</v>
       </c>
       <c r="M18" t="n">
-        <v>369.3407488101772</v>
+        <v>389.2981814863418</v>
       </c>
       <c r="N18" t="n">
-        <v>379.1160994234845</v>
+        <v>399.6017459573929</v>
       </c>
       <c r="O18" t="n">
-        <v>346.8171646305294</v>
+        <v>365.5575290131484</v>
       </c>
       <c r="P18" t="n">
-        <v>278.3513505573394</v>
+        <v>293.3921451540999</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.0705063765172</v>
+        <v>196.1248792449108</v>
       </c>
       <c r="R18" t="n">
-        <v>90.50350770567545</v>
+        <v>95.39389055081629</v>
       </c>
       <c r="S18" t="n">
-        <v>27.07561141095897</v>
+        <v>28.53864979391824</v>
       </c>
       <c r="T18" t="n">
-        <v>5.875439642661463</v>
+        <v>6.19292069908167</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09589945009784767</v>
+        <v>0.1010814042287542</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.222062937858911</v>
+        <v>1.288097457166419</v>
       </c>
       <c r="H19" t="n">
-        <v>10.86525048387287</v>
+        <v>11.45235739189781</v>
       </c>
       <c r="I19" t="n">
-        <v>36.75076544033889</v>
+        <v>38.73660353005923</v>
       </c>
       <c r="J19" t="n">
-        <v>86.39984970662498</v>
+        <v>91.06849022166583</v>
       </c>
       <c r="K19" t="n">
-        <v>141.9814940530625</v>
+        <v>149.6535045689712</v>
       </c>
       <c r="L19" t="n">
-        <v>181.6874298704057</v>
+        <v>191.5049619499966</v>
       </c>
       <c r="M19" t="n">
-        <v>191.56392034092</v>
+        <v>201.9151313992778</v>
       </c>
       <c r="N19" t="n">
-        <v>187.0089584816278</v>
+        <v>197.1140408771122</v>
       </c>
       <c r="O19" t="n">
-        <v>172.7330414348214</v>
+        <v>182.0667205820317</v>
       </c>
       <c r="P19" t="n">
-        <v>147.8029575024995</v>
+        <v>155.7895324558366</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.3311065510766</v>
+        <v>107.8605970723626</v>
       </c>
       <c r="R19" t="n">
-        <v>54.94839355136519</v>
+        <v>57.91754566495552</v>
       </c>
       <c r="S19" t="n">
-        <v>21.29722410795937</v>
+        <v>22.44802568534568</v>
       </c>
       <c r="T19" t="n">
-        <v>5.221541643578981</v>
+        <v>5.503689135165607</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06665797842866794</v>
+        <v>0.07025986129998657</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.72437968787185</v>
+        <v>2.871592321138475</v>
       </c>
       <c r="H20" t="n">
-        <v>27.90105347841759</v>
+        <v>29.40869485885941</v>
       </c>
       <c r="I20" t="n">
-        <v>105.0316479166796</v>
+        <v>110.7070629606911</v>
       </c>
       <c r="J20" t="n">
-        <v>231.2283205335137</v>
+        <v>243.7228087662268</v>
       </c>
       <c r="K20" t="n">
-        <v>346.5513127211291</v>
+        <v>365.2773117200185</v>
       </c>
       <c r="L20" t="n">
-        <v>429.9275475938374</v>
+        <v>453.1588052180602</v>
       </c>
       <c r="M20" t="n">
-        <v>478.3772348680284</v>
+        <v>504.2264851591065</v>
       </c>
       <c r="N20" t="n">
-        <v>486.1178786561943</v>
+        <v>512.3853968415413</v>
       </c>
       <c r="O20" t="n">
-        <v>459.0273281349186</v>
+        <v>483.8310006982205</v>
       </c>
       <c r="P20" t="n">
-        <v>391.7692045905822</v>
+        <v>412.9385652701144</v>
       </c>
       <c r="Q20" t="n">
-        <v>294.2023570186715</v>
+        <v>310.0996652693427</v>
       </c>
       <c r="R20" t="n">
-        <v>171.1353155682803</v>
+        <v>180.3826611427149</v>
       </c>
       <c r="S20" t="n">
-        <v>62.08180213737985</v>
+        <v>65.43641001794306</v>
       </c>
       <c r="T20" t="n">
-        <v>11.92597208365903</v>
+        <v>12.57039538578368</v>
       </c>
       <c r="U20" t="n">
-        <v>0.217950375029748</v>
+        <v>0.2297273856910779</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.457671641487284</v>
+        <v>1.536437344277063</v>
       </c>
       <c r="H21" t="n">
-        <v>14.07803927436404</v>
+        <v>14.83875014078111</v>
       </c>
       <c r="I21" t="n">
-        <v>50.18737888454027</v>
+        <v>52.89926821304802</v>
       </c>
       <c r="J21" t="n">
-        <v>137.7180036371824</v>
+        <v>145.1596352327729</v>
       </c>
       <c r="K21" t="n">
-        <v>235.3820036168304</v>
+        <v>248.1009372993362</v>
       </c>
       <c r="L21" t="n">
-        <v>316.5001518062632</v>
+        <v>333.6023277562983</v>
       </c>
       <c r="M21" t="n">
-        <v>369.3407488101772</v>
+        <v>389.2981814863418</v>
       </c>
       <c r="N21" t="n">
-        <v>379.1160994234845</v>
+        <v>399.6017459573929</v>
       </c>
       <c r="O21" t="n">
-        <v>346.8171646305294</v>
+        <v>365.5575290131484</v>
       </c>
       <c r="P21" t="n">
-        <v>278.3513505573394</v>
+        <v>293.3921451540999</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.0705063765172</v>
+        <v>196.1248792449108</v>
       </c>
       <c r="R21" t="n">
-        <v>90.50350770567545</v>
+        <v>95.39389055081629</v>
       </c>
       <c r="S21" t="n">
-        <v>27.07561141095897</v>
+        <v>28.53864979391824</v>
       </c>
       <c r="T21" t="n">
-        <v>5.875439642661463</v>
+        <v>6.19292069908167</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09589945009784767</v>
+        <v>0.1010814042287542</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.222062937858911</v>
+        <v>1.288097457166419</v>
       </c>
       <c r="H22" t="n">
-        <v>10.86525048387287</v>
+        <v>11.45235739189781</v>
       </c>
       <c r="I22" t="n">
-        <v>36.75076544033889</v>
+        <v>38.73660353005923</v>
       </c>
       <c r="J22" t="n">
-        <v>86.39984970662498</v>
+        <v>91.06849022166583</v>
       </c>
       <c r="K22" t="n">
-        <v>141.9814940530625</v>
+        <v>149.6535045689712</v>
       </c>
       <c r="L22" t="n">
-        <v>181.6874298704057</v>
+        <v>191.5049619499966</v>
       </c>
       <c r="M22" t="n">
-        <v>191.56392034092</v>
+        <v>201.9151313992778</v>
       </c>
       <c r="N22" t="n">
-        <v>187.0089584816278</v>
+        <v>197.1140408771122</v>
       </c>
       <c r="O22" t="n">
-        <v>172.7330414348214</v>
+        <v>182.0667205820317</v>
       </c>
       <c r="P22" t="n">
-        <v>147.8029575024995</v>
+        <v>155.7895324558366</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.3311065510766</v>
+        <v>107.8605970723626</v>
       </c>
       <c r="R22" t="n">
-        <v>54.94839355136519</v>
+        <v>57.91754566495552</v>
       </c>
       <c r="S22" t="n">
-        <v>21.29722410795937</v>
+        <v>22.44802568534568</v>
       </c>
       <c r="T22" t="n">
-        <v>5.221541643578981</v>
+        <v>5.503689135165607</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06665797842866794</v>
+        <v>0.07025986129998657</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34374,10 +34374,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L44" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M44" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N44" t="n">
         <v>612.3808166839008</v>
@@ -34386,22 +34386,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P44" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q44" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R44" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S44" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T44" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U44" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I45" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J45" t="n">
         <v>173.4885040076062</v>
@@ -34453,19 +34453,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L45" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M45" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N45" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O45" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P45" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q45" t="n">
         <v>234.3999545349506</v>
@@ -34474,10 +34474,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S45" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T45" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U45" t="n">
         <v>0.1208081129062761</v>
@@ -34523,22 +34523,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I46" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J46" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K46" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L46" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M46" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N46" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O46" t="n">
         <v>217.5982526595396</v>
@@ -34550,13 +34550,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R46" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S46" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T46" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U46" t="n">
         <v>0.08397154077419852</v>
@@ -34786,13 +34786,13 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M3" t="n">
-        <v>21.75745062690899</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="N3" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="O3" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690901</v>
       </c>
       <c r="P3" t="n">
         <v>29.03019834022993</v>
@@ -34941,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>37.27450692721135</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M5" t="n">
-        <v>73.46440173672741</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N5" t="n">
-        <v>73.46440173672741</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O5" t="n">
-        <v>61.42357068186735</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P5" t="n">
-        <v>17.57410067531529</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>11.64635175977992</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>62.45040280136672</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
-        <v>27.06118072238024</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N6" t="n">
-        <v>73.46440173672741</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O6" t="n">
-        <v>73.46440173672741</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P6" t="n">
-        <v>42.80260953389856</v>
+        <v>0.9926419400143358</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.38234588573897</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L8" t="n">
-        <v>66.28237460692793</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M8" t="n">
-        <v>105.7412437481403</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N8" t="n">
-        <v>112.1126601249237</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O8" t="n">
-        <v>92.39484495920428</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P8" t="n">
-        <v>44.00736672526762</v>
+        <v>33.29847611381774</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.52793472257738</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L9" t="n">
-        <v>83.8051510039169</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M9" t="n">
-        <v>57.82896157694136</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N9" t="n">
-        <v>112.1126601249237</v>
+        <v>32.44591292034803</v>
       </c>
       <c r="O9" t="n">
-        <v>101.0627287184343</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340929</v>
+        <v>53.97475141920032</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35342,7 +35342,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.698987336806027</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L11" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P11" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L12" t="n">
         <v>117.596605360629</v>
@@ -35500,16 +35500,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O12" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O13" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>50.1824160068274</v>
+        <v>62.67690423954053</v>
       </c>
       <c r="K17" t="n">
-        <v>126.4614616761486</v>
+        <v>145.187460675038</v>
       </c>
       <c r="L17" t="n">
-        <v>194.1611326238502</v>
+        <v>217.392390248073</v>
       </c>
       <c r="M17" t="n">
-        <v>248.0310016407556</v>
+        <v>273.8802519318338</v>
       </c>
       <c r="N17" t="n">
-        <v>256.7048150596034</v>
+        <v>282.9723332449503</v>
       </c>
       <c r="O17" t="n">
-        <v>228.9291167132319</v>
+        <v>253.7327892765338</v>
       </c>
       <c r="P17" t="n">
-        <v>160.5362088353127</v>
+        <v>181.7055695148449</v>
       </c>
       <c r="Q17" t="n">
-        <v>71.89666714422199</v>
+        <v>87.79397539489318</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.88037697051573</v>
+        <v>18.32200856610623</v>
       </c>
       <c r="K18" t="n">
-        <v>97.54056464247145</v>
+        <v>110.2594983249772</v>
       </c>
       <c r="L18" t="n">
-        <v>177.945772026389</v>
+        <v>195.0479479764242</v>
       </c>
       <c r="M18" t="n">
-        <v>227.2067148881588</v>
+        <v>247.1641475643235</v>
       </c>
       <c r="N18" t="n">
-        <v>247.7743873401512</v>
+        <v>268.2600338740596</v>
       </c>
       <c r="O18" t="n">
-        <v>204.2209201860849</v>
+        <v>222.961284568704</v>
       </c>
       <c r="P18" t="n">
-        <v>144.3769431430092</v>
+        <v>159.4177377397697</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.08873229049567</v>
+        <v>56.14310515888926</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.96823588252713</v>
+        <v>20.64024639843581</v>
       </c>
       <c r="L19" t="n">
-        <v>46.80275358916742</v>
+        <v>56.62028566875827</v>
       </c>
       <c r="M19" t="n">
-        <v>52.63813639331491</v>
+        <v>62.98934745167276</v>
       </c>
       <c r="N19" t="n">
-        <v>59.32341401639462</v>
+        <v>69.42849641187905</v>
       </c>
       <c r="O19" t="n">
-        <v>34.27650298297857</v>
+        <v>43.61018213018895</v>
       </c>
       <c r="P19" t="n">
-        <v>10.07495345335187</v>
+        <v>18.06152840668904</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>50.1824160068274</v>
+        <v>62.67690423954053</v>
       </c>
       <c r="K20" t="n">
-        <v>126.4614616761486</v>
+        <v>145.187460675038</v>
       </c>
       <c r="L20" t="n">
-        <v>194.1611326238502</v>
+        <v>217.392390248073</v>
       </c>
       <c r="M20" t="n">
-        <v>248.0310016407556</v>
+        <v>273.8802519318338</v>
       </c>
       <c r="N20" t="n">
-        <v>256.7048150596034</v>
+        <v>282.9723332449503</v>
       </c>
       <c r="O20" t="n">
-        <v>228.9291167132319</v>
+        <v>253.7327892765338</v>
       </c>
       <c r="P20" t="n">
-        <v>160.5362088353127</v>
+        <v>181.7055695148449</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.89666714422199</v>
+        <v>87.79397539489318</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>10.88037697051573</v>
+        <v>18.32200856610623</v>
       </c>
       <c r="K21" t="n">
-        <v>97.54056464247145</v>
+        <v>110.2594983249772</v>
       </c>
       <c r="L21" t="n">
-        <v>177.945772026389</v>
+        <v>195.0479479764242</v>
       </c>
       <c r="M21" t="n">
-        <v>227.2067148881588</v>
+        <v>247.1641475643235</v>
       </c>
       <c r="N21" t="n">
-        <v>247.7743873401512</v>
+        <v>268.2600338740596</v>
       </c>
       <c r="O21" t="n">
-        <v>204.2209201860849</v>
+        <v>222.961284568704</v>
       </c>
       <c r="P21" t="n">
-        <v>144.3769431430092</v>
+        <v>159.4177377397697</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.08873229049567</v>
+        <v>56.14310515888926</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.96823588252713</v>
+        <v>20.64024639843581</v>
       </c>
       <c r="L22" t="n">
-        <v>46.80275358916742</v>
+        <v>56.62028566875827</v>
       </c>
       <c r="M22" t="n">
-        <v>52.63813639331491</v>
+        <v>62.98934745167276</v>
       </c>
       <c r="N22" t="n">
-        <v>59.32341401639462</v>
+        <v>69.42849641187905</v>
       </c>
       <c r="O22" t="n">
-        <v>34.27650298297857</v>
+        <v>43.61018213018895</v>
       </c>
       <c r="P22" t="n">
-        <v>10.07495345335187</v>
+        <v>18.06152840668904</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K44" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L44" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M44" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N44" t="n">
         <v>382.9677530873099</v>
@@ -38034,7 +38034,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P44" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q44" t="n">
         <v>148.31198861839</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K45" t="n">
         <v>158.6780472169987</v>
@@ -38104,7 +38104,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M45" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N45" t="n">
         <v>346.2449737319509</v>
@@ -38116,7 +38116,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,19 +38177,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L46" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M46" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N46" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O46" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P46" t="n">
         <v>48.46489236084162</v>
